--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
-    <sheet name="Сборки" sheetId="10" r:id="rId2"/>
-    <sheet name="Конденсаторы" sheetId="2" r:id="rId3"/>
-    <sheet name="Конденсаторы прочие" sheetId="3" r:id="rId4"/>
-    <sheet name="Диоды" sheetId="4" r:id="rId5"/>
-    <sheet name="Транзисторы" sheetId="5" r:id="rId6"/>
-    <sheet name="Микросхемы" sheetId="6" r:id="rId7"/>
-    <sheet name="Стабилизаторы напряжения" sheetId="7" r:id="rId8"/>
-    <sheet name="Кварцевые резонаторы" sheetId="8" r:id="rId9"/>
-    <sheet name="Контакторы" sheetId="9" r:id="rId10"/>
+    <sheet name="Конденсаторы" sheetId="2" r:id="rId2"/>
+    <sheet name="Конденсаторы прочие" sheetId="3" r:id="rId3"/>
+    <sheet name="Диоды" sheetId="4" r:id="rId4"/>
+    <sheet name="Транзисторы" sheetId="5" r:id="rId5"/>
+    <sheet name="Микросхемы" sheetId="6" r:id="rId6"/>
+    <sheet name="Стабилизаторы напряжения" sheetId="7" r:id="rId7"/>
+    <sheet name="Кварцевые резонаторы" sheetId="8" r:id="rId8"/>
+    <sheet name="Контакторы" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="163">
   <si>
     <t>Part</t>
   </si>
@@ -532,13 +531,10 @@
     <t>X-40</t>
   </si>
   <si>
-    <t>цуа</t>
-  </si>
-  <si>
-    <t>уцау</t>
-  </si>
-  <si>
-    <t>ау</t>
+    <t>Resistors.SchLib</t>
+  </si>
+  <si>
+    <t>Res</t>
   </si>
 </sst>
 </file>
@@ -889,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,6 +945,12 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -978,6 +980,12 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
@@ -1007,6 +1015,12 @@
       <c r="A4" t="s">
         <v>35</v>
       </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
@@ -1036,6 +1050,12 @@
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
       <c r="F5" t="s">
         <v>9</v>
       </c>
@@ -1065,6 +1085,12 @@
       <c r="A6" t="s">
         <v>37</v>
       </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
@@ -1094,6 +1120,12 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
@@ -1123,6 +1155,12 @@
       <c r="A8" t="s">
         <v>39</v>
       </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
@@ -1152,6 +1190,12 @@
       <c r="A9" t="s">
         <v>40</v>
       </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
       <c r="F9" t="s">
         <v>9</v>
       </c>
@@ -1181,6 +1225,12 @@
       <c r="A10" t="s">
         <v>41</v>
       </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
@@ -1210,6 +1260,12 @@
       <c r="A11" t="s">
         <v>42</v>
       </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
@@ -1239,6 +1295,12 @@
       <c r="A12" t="s">
         <v>43</v>
       </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
@@ -1268,6 +1330,12 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>162</v>
+      </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
@@ -1297,6 +1365,12 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="F14" t="s">
         <v>9</v>
       </c>
@@ -1326,6 +1400,12 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
@@ -1354,6 +1434,12 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1390,6 +1476,12 @@
       <c r="A19" t="s">
         <v>48</v>
       </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" t="s">
         <v>9</v>
       </c>
@@ -1416,6 +1508,12 @@
       <c r="A20" t="s">
         <v>49</v>
       </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
@@ -1442,6 +1540,12 @@
       <c r="A21" t="s">
         <v>50</v>
       </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
@@ -1468,6 +1572,12 @@
       <c r="A22" t="s">
         <v>51</v>
       </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
@@ -1494,6 +1604,12 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
@@ -1520,6 +1636,12 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
       <c r="F24" t="s">
         <v>9</v>
       </c>
@@ -1546,6 +1668,12 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
       <c r="F25" t="s">
         <v>9</v>
       </c>
@@ -1572,6 +1700,12 @@
       <c r="A26" t="s">
         <v>55</v>
       </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
@@ -1598,6 +1732,12 @@
       <c r="A27" t="s">
         <v>56</v>
       </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
       <c r="F27" t="s">
         <v>9</v>
       </c>
@@ -1624,6 +1764,12 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
       <c r="F28" t="s">
         <v>9</v>
       </c>
@@ -1650,6 +1796,12 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
       <c r="F29" t="s">
         <v>9</v>
       </c>
@@ -1676,6 +1828,12 @@
       <c r="A30" t="s">
         <v>59</v>
       </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
       <c r="F30" t="s">
         <v>9</v>
       </c>
@@ -1702,6 +1860,12 @@
       <c r="A31" t="s">
         <v>60</v>
       </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
       <c r="F31" t="s">
         <v>9</v>
       </c>
@@ -1728,6 +1892,12 @@
       <c r="A32" t="s">
         <v>61</v>
       </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>162</v>
+      </c>
       <c r="F32" t="s">
         <v>9</v>
       </c>
@@ -1753,6 +1923,12 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1782,281 +1958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
@@ -3331,7 +3233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
@@ -3395,6 +3297,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3449,12 +3363,239 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="166">
   <si>
     <t>Part</t>
   </si>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>Res</t>
+  </si>
+  <si>
+    <t>Capasitors.SchLib</t>
+  </si>
+  <si>
+    <t>CapNP</t>
+  </si>
+  <si>
+    <t>CapPOL</t>
   </si>
 </sst>
 </file>
@@ -885,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1962,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,6 +2038,12 @@
       <c r="A3" t="s">
         <v>64</v>
       </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
@@ -2058,6 +2073,12 @@
       <c r="A4" t="s">
         <v>65</v>
       </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>164</v>
+      </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
@@ -2087,6 +2108,12 @@
       <c r="A5" t="s">
         <v>66</v>
       </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
@@ -2116,6 +2143,12 @@
       <c r="A6" t="s">
         <v>67</v>
       </c>
+      <c r="B6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
@@ -2145,6 +2178,12 @@
       <c r="A7" t="s">
         <v>68</v>
       </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
@@ -2174,6 +2213,12 @@
       <c r="A9" t="s">
         <v>69</v>
       </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
@@ -2203,6 +2248,12 @@
       <c r="A10" t="s">
         <v>70</v>
       </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>164</v>
+      </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
@@ -2232,6 +2283,12 @@
       <c r="A11" t="s">
         <v>71</v>
       </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
@@ -2261,6 +2318,12 @@
       <c r="A12" t="s">
         <v>72</v>
       </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
@@ -2290,6 +2353,12 @@
       <c r="A13" t="s">
         <v>73</v>
       </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -2328,6 +2397,12 @@
       <c r="A17" t="s">
         <v>74</v>
       </c>
+      <c r="B17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="F17" t="s">
         <v>79</v>
       </c>
@@ -2357,6 +2432,12 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -2386,6 +2467,12 @@
       <c r="A19" t="s">
         <v>76</v>
       </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="F19" t="s">
         <v>79</v>
       </c>
@@ -2415,6 +2502,12 @@
       <c r="A20" t="s">
         <v>77</v>
       </c>
+      <c r="B20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
       <c r="F20" t="s">
         <v>79</v>
       </c>
@@ -2444,6 +2537,12 @@
       <c r="A21" t="s">
         <v>78</v>
       </c>
+      <c r="B21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
       <c r="F21" t="s">
         <v>79</v>
       </c>
@@ -2478,6 +2577,12 @@
       <c r="A25" t="s">
         <v>82</v>
       </c>
+      <c r="B25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
       <c r="F25" t="s">
         <v>80</v>
       </c>
@@ -2507,6 +2612,12 @@
       <c r="A26" t="s">
         <v>83</v>
       </c>
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
       <c r="F26" t="s">
         <v>80</v>
       </c>
@@ -2536,6 +2647,12 @@
       <c r="A27" t="s">
         <v>84</v>
       </c>
+      <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
       <c r="F27" t="s">
         <v>80</v>
       </c>
@@ -2565,6 +2682,12 @@
       <c r="A28" t="s">
         <v>85</v>
       </c>
+      <c r="B28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
       <c r="F28" t="s">
         <v>80</v>
       </c>
@@ -2594,6 +2717,12 @@
       <c r="A29" t="s">
         <v>86</v>
       </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
@@ -2623,6 +2752,12 @@
       <c r="A30" t="s">
         <v>87</v>
       </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
       <c r="F30" t="s">
         <v>80</v>
       </c>
@@ -2652,6 +2787,12 @@
       <c r="A31" t="s">
         <v>88</v>
       </c>
+      <c r="B31" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
@@ -2681,6 +2822,12 @@
       <c r="A32" t="s">
         <v>89</v>
       </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>165</v>
+      </c>
       <c r="F32" t="s">
         <v>80</v>
       </c>
@@ -2710,6 +2857,12 @@
       <c r="A33" t="s">
         <v>90</v>
       </c>
+      <c r="B33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" t="s">
+        <v>165</v>
+      </c>
       <c r="F33" t="s">
         <v>80</v>
       </c>
@@ -2739,6 +2892,12 @@
       <c r="A34" t="s">
         <v>91</v>
       </c>
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
       <c r="F34" t="s">
         <v>80</v>
       </c>
@@ -2768,6 +2927,12 @@
       <c r="A35" t="s">
         <v>92</v>
       </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>165</v>
+      </c>
       <c r="F35" t="s">
         <v>80</v>
       </c>
@@ -2797,6 +2962,12 @@
       <c r="A36" t="s">
         <v>93</v>
       </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>165</v>
+      </c>
       <c r="F36" t="s">
         <v>80</v>
       </c>
@@ -2826,6 +2997,12 @@
       <c r="A37" t="s">
         <v>94</v>
       </c>
+      <c r="B37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
       <c r="F37" t="s">
         <v>80</v>
       </c>
@@ -2855,6 +3032,12 @@
       <c r="A38" t="s">
         <v>95</v>
       </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
       <c r="F38" t="s">
         <v>80</v>
       </c>
@@ -2884,6 +3067,12 @@
       <c r="A39" t="s">
         <v>96</v>
       </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>165</v>
+      </c>
       <c r="F39" t="s">
         <v>80</v>
       </c>
@@ -2913,6 +3102,12 @@
       <c r="A40" t="s">
         <v>97</v>
       </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>165</v>
+      </c>
       <c r="F40" t="s">
         <v>80</v>
       </c>
@@ -2942,6 +3137,12 @@
       <c r="A41" t="s">
         <v>98</v>
       </c>
+      <c r="B41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
       <c r="F41" t="s">
         <v>80</v>
       </c>
@@ -2971,6 +3172,12 @@
       <c r="A42" t="s">
         <v>99</v>
       </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
       <c r="F42" t="s">
         <v>80</v>
       </c>
@@ -3000,6 +3207,12 @@
       <c r="A43" t="s">
         <v>100</v>
       </c>
+      <c r="B43" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
       <c r="F43" t="s">
         <v>80</v>
       </c>
@@ -3029,6 +3242,12 @@
       <c r="A44" t="s">
         <v>101</v>
       </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
       <c r="F44" t="s">
         <v>80</v>
       </c>
@@ -3058,6 +3277,12 @@
       <c r="A45" t="s">
         <v>102</v>
       </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
       <c r="F45" t="s">
         <v>80</v>
       </c>
@@ -3087,6 +3312,12 @@
       <c r="A46" t="s">
         <v>103</v>
       </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
       <c r="F46" t="s">
         <v>80</v>
       </c>
@@ -3116,6 +3347,12 @@
       <c r="A47" t="s">
         <v>104</v>
       </c>
+      <c r="B47" t="s">
+        <v>163</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
       <c r="F47" t="s">
         <v>80</v>
       </c>
@@ -3145,6 +3382,12 @@
       <c r="A48" t="s">
         <v>105</v>
       </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
       <c r="F48" t="s">
         <v>80</v>
       </c>
@@ -3174,6 +3417,12 @@
       <c r="A49" t="s">
         <v>106</v>
       </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
@@ -3202,6 +3451,12 @@
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>165</v>
       </c>
       <c r="F50" t="s">
         <v>80</v>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="174">
   <si>
     <t>Part</t>
   </si>
@@ -544,6 +544,30 @@
   </si>
   <si>
     <t>CapPOL</t>
+  </si>
+  <si>
+    <t>Реостат</t>
+  </si>
+  <si>
+    <t>Варистор</t>
+  </si>
+  <si>
+    <t>Терморезистор</t>
+  </si>
+  <si>
+    <t>Потенциометр</t>
+  </si>
+  <si>
+    <t>Rst</t>
+  </si>
+  <si>
+    <t>Var</t>
+  </si>
+  <si>
+    <t>Trm</t>
+  </si>
+  <si>
+    <t>Pot</t>
   </si>
 </sst>
 </file>
@@ -892,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,6 +1985,50 @@
         <v>32</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1971,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,18 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="Резисторы" sheetId="1" r:id="rId1"/>
-    <sheet name="Конденсаторы" sheetId="2" r:id="rId2"/>
-    <sheet name="Конденсаторы прочие" sheetId="3" r:id="rId3"/>
-    <sheet name="Диоды" sheetId="4" r:id="rId4"/>
-    <sheet name="Транзисторы" sheetId="5" r:id="rId5"/>
-    <sheet name="Микросхемы" sheetId="6" r:id="rId6"/>
-    <sheet name="Стабилизаторы напряжения" sheetId="7" r:id="rId7"/>
-    <sheet name="Кварцевые резонаторы" sheetId="8" r:id="rId8"/>
-    <sheet name="Контакторы" sheetId="9" r:id="rId9"/>
+    <sheet name="Resistors" sheetId="1" r:id="rId1"/>
+    <sheet name="Capacitors" sheetId="2" r:id="rId2"/>
+    <sheet name="Resistors Other" sheetId="4" r:id="rId3"/>
+    <sheet name="Capacitors Other" sheetId="3" r:id="rId4"/>
+    <sheet name="Diode" sheetId="5" r:id="rId5"/>
+    <sheet name="Transistor" sheetId="6" r:id="rId6"/>
+    <sheet name="OpAmp" sheetId="7" r:id="rId7"/>
+    <sheet name="Microcontroller" sheetId="8" r:id="rId8"/>
+    <sheet name="LinearVoltage" sheetId="9" r:id="rId9"/>
+    <sheet name="Contact" sheetId="23" r:id="rId10"/>
+    <sheet name="SMPScontrol" sheetId="10" r:id="rId11"/>
+    <sheet name="Logic" sheetId="11" r:id="rId12"/>
+    <sheet name="Interface" sheetId="12" r:id="rId13"/>
+    <sheet name="Protection" sheetId="13" r:id="rId14"/>
+    <sheet name="Drivers" sheetId="14" r:id="rId15"/>
+    <sheet name="MotorControl" sheetId="15" r:id="rId16"/>
+    <sheet name="Magnetics" sheetId="16" r:id="rId17"/>
+    <sheet name="LED" sheetId="17" r:id="rId18"/>
+    <sheet name="Quartz" sheetId="18" r:id="rId19"/>
+    <sheet name="Device" sheetId="19" r:id="rId20"/>
+    <sheet name="Sensors" sheetId="20" r:id="rId21"/>
+    <sheet name="OptoCoupler" sheetId="21" r:id="rId22"/>
+    <sheet name="DC-DC" sheetId="22" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="218">
   <si>
     <t>Part</t>
   </si>
@@ -291,9 +305,6 @@
     <t>Конденсатор электролитический</t>
   </si>
   <si>
-    <t>Voltage</t>
-  </si>
-  <si>
     <t>ECAP 5х7</t>
   </si>
   <si>
@@ -568,6 +579,141 @@
   </si>
   <si>
     <t>Pot</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>X17</t>
+  </si>
+  <si>
+    <t>X18</t>
+  </si>
+  <si>
+    <t>X19</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X21</t>
+  </si>
+  <si>
+    <t>X22</t>
+  </si>
+  <si>
+    <t>X23</t>
+  </si>
+  <si>
+    <t>X24</t>
+  </si>
+  <si>
+    <t>X25</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>X27</t>
+  </si>
+  <si>
+    <t>X28</t>
+  </si>
+  <si>
+    <t>X29</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>X31</t>
+  </si>
+  <si>
+    <t>X32</t>
+  </si>
+  <si>
+    <t>X33</t>
+  </si>
+  <si>
+    <t>X34</t>
+  </si>
+  <si>
+    <t>X35</t>
+  </si>
+  <si>
+    <t>X36</t>
+  </si>
+  <si>
+    <t>X37</t>
+  </si>
+  <si>
+    <t>X38</t>
+  </si>
+  <si>
+    <t>X39</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>Contact.SchLib</t>
+  </si>
+  <si>
+    <t>Footprint Ref 2</t>
+  </si>
+  <si>
+    <t>Footprint Ref 3</t>
+  </si>
+  <si>
+    <t>Footprint Ref 4</t>
+  </si>
+  <si>
+    <t>Footprint Ref 5</t>
   </si>
 </sst>
 </file>
@@ -577,7 +723,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +753,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -616,7 +778,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -624,17 +786,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -918,71 +1097,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="7" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="46" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>162</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1014,10 +1200,10 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" t="s">
-        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1049,10 +1235,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1084,10 +1270,10 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
         <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -1119,10 +1305,10 @@
         <v>37</v>
       </c>
       <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
         <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -1154,10 +1340,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>162</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1189,10 +1375,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
         <v>161</v>
-      </c>
-      <c r="C8" t="s">
-        <v>162</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1224,10 +1410,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" t="s">
-        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1259,10 +1445,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
         <v>161</v>
-      </c>
-      <c r="C10" t="s">
-        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -1294,10 +1480,10 @@
         <v>42</v>
       </c>
       <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
         <v>161</v>
-      </c>
-      <c r="C11" t="s">
-        <v>162</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -1329,10 +1515,10 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -1364,10 +1550,10 @@
         <v>44</v>
       </c>
       <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
         <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>162</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -1399,10 +1585,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
         <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -1434,10 +1620,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
         <v>161</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -1469,10 +1655,10 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
         <v>161</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1510,10 +1696,10 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" t="s">
         <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1542,10 +1728,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" t="s">
         <v>161</v>
-      </c>
-      <c r="C20" t="s">
-        <v>162</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1574,10 +1760,10 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" t="s">
-        <v>162</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1606,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
         <v>161</v>
-      </c>
-      <c r="C22" t="s">
-        <v>162</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1638,10 +1824,10 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" t="s">
         <v>161</v>
-      </c>
-      <c r="C23" t="s">
-        <v>162</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1670,10 +1856,10 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
         <v>161</v>
-      </c>
-      <c r="C24" t="s">
-        <v>162</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1702,10 +1888,10 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" t="s">
         <v>161</v>
-      </c>
-      <c r="C25" t="s">
-        <v>162</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1734,10 +1920,10 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" t="s">
         <v>161</v>
-      </c>
-      <c r="C26" t="s">
-        <v>162</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1766,10 +1952,10 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" t="s">
         <v>161</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1798,10 +1984,10 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" t="s">
         <v>161</v>
-      </c>
-      <c r="C28" t="s">
-        <v>162</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1830,10 +2016,10 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
         <v>161</v>
-      </c>
-      <c r="C29" t="s">
-        <v>162</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1862,10 +2048,10 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
         <v>161</v>
-      </c>
-      <c r="C30" t="s">
-        <v>162</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1894,10 +2080,10 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
         <v>161</v>
-      </c>
-      <c r="C31" t="s">
-        <v>162</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1926,10 +2112,10 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
         <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>162</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1958,10 +2144,10 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
         <v>161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>162</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1987,51 +2173,1098 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2039,8 +3272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,50 +3290,50 @@
     <col min="13" max="13" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2107,16 +3341,16 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
         <v>163</v>
-      </c>
-      <c r="C3" t="s">
-        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -2131,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2142,16 +3376,16 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
         <v>163</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -2166,10 +3400,10 @@
         <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2177,16 +3411,16 @@
         <v>66</v>
       </c>
       <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>164</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -2201,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2212,16 +3446,16 @@
         <v>67</v>
       </c>
       <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
         <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
       </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -2236,10 +3470,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2247,16 +3481,16 @@
         <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" t="s">
-        <v>164</v>
       </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -2271,10 +3505,10 @@
         <v>11</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2282,16 +3516,16 @@
         <v>69</v>
       </c>
       <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
         <v>163</v>
-      </c>
-      <c r="C9" t="s">
-        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -2306,10 +3540,10 @@
         <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2317,16 +3551,16 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -2341,10 +3575,10 @@
         <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2352,16 +3586,16 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
         <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>164</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -2376,10 +3610,10 @@
         <v>11</v>
       </c>
       <c r="L11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2387,16 +3621,16 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
         <v>163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -2411,10 +3645,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2422,34 +3656,34 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2458,7 +3692,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2466,10 +3700,10 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
@@ -2490,10 +3724,10 @@
         <v>11</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,10 +3735,10 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
         <v>79</v>
@@ -2525,10 +3759,10 @@
         <v>11</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2536,10 +3770,10 @@
         <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
         <v>79</v>
@@ -2560,10 +3794,10 @@
         <v>11</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2571,10 +3805,10 @@
         <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
         <v>79</v>
@@ -2595,10 +3829,10 @@
         <v>11</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M20" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2606,10 +3840,10 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" t="s">
         <v>79</v>
@@ -2630,32 +3864,32 @@
         <v>11</v>
       </c>
       <c r="L21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
         <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -2670,27 +3904,27 @@
         <v>11</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -2705,27 +3939,27 @@
         <v>11</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
         <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -2740,27 +3974,27 @@
         <v>11</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
       </c>
       <c r="G28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -2775,27 +4009,27 @@
         <v>11</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -2810,27 +4044,27 @@
         <v>11</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" t="s">
         <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -2845,27 +4079,27 @@
         <v>11</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -2880,27 +4114,27 @@
         <v>11</v>
       </c>
       <c r="L31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
         <v>80</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -2915,27 +4149,27 @@
         <v>11</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
         <v>80</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -2950,27 +4184,27 @@
         <v>11</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
         <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -2985,27 +4219,27 @@
         <v>11</v>
       </c>
       <c r="L34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
         <v>80</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -3020,27 +4254,27 @@
         <v>11</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F36" t="s">
         <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -3055,27 +4289,27 @@
         <v>11</v>
       </c>
       <c r="L36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -3090,27 +4324,27 @@
         <v>11</v>
       </c>
       <c r="L37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F38" t="s">
         <v>80</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -3125,27 +4359,27 @@
         <v>11</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -3160,27 +4394,27 @@
         <v>11</v>
       </c>
       <c r="L39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F40" t="s">
         <v>80</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -3195,27 +4429,27 @@
         <v>11</v>
       </c>
       <c r="L40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F41" t="s">
         <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -3230,27 +4464,27 @@
         <v>11</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F42" t="s">
         <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -3265,27 +4499,27 @@
         <v>11</v>
       </c>
       <c r="L42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
         <v>80</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -3300,27 +4534,27 @@
         <v>11</v>
       </c>
       <c r="L43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
         <v>80</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -3335,27 +4569,27 @@
         <v>11</v>
       </c>
       <c r="L44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F45" t="s">
         <v>80</v>
       </c>
       <c r="G45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -3370,27 +4604,27 @@
         <v>11</v>
       </c>
       <c r="L45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F46" t="s">
         <v>80</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -3405,27 +4639,27 @@
         <v>11</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F47" t="s">
         <v>80</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -3440,27 +4674,27 @@
         <v>11</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F48" t="s">
         <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H48" t="s">
         <v>11</v>
@@ -3475,27 +4709,27 @@
         <v>11</v>
       </c>
       <c r="L48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H49" t="s">
         <v>11</v>
@@ -3510,27 +4744,27 @@
         <v>11</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F50" t="s">
         <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -3545,12 +4779,244 @@
         <v>11</v>
       </c>
       <c r="L50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M50" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3558,10 +5024,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,118 +5106,292 @@
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,223 +5403,48 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>160</v>
-      </c>
-    </row>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
     <sheet name="Capacitors" sheetId="2" r:id="rId2"/>
     <sheet name="Resistors Other" sheetId="4" r:id="rId3"/>
     <sheet name="Capacitors Other" sheetId="3" r:id="rId4"/>
-    <sheet name="Diode" sheetId="5" r:id="rId5"/>
-    <sheet name="Transistor" sheetId="6" r:id="rId6"/>
-    <sheet name="OpAmp" sheetId="7" r:id="rId7"/>
-    <sheet name="Microcontroller" sheetId="8" r:id="rId8"/>
-    <sheet name="LinearVoltage" sheetId="9" r:id="rId9"/>
-    <sheet name="Contact" sheetId="23" r:id="rId10"/>
-    <sheet name="SMPScontrol" sheetId="10" r:id="rId11"/>
-    <sheet name="Logic" sheetId="11" r:id="rId12"/>
-    <sheet name="Interface" sheetId="12" r:id="rId13"/>
-    <sheet name="Protection" sheetId="13" r:id="rId14"/>
-    <sheet name="Drivers" sheetId="14" r:id="rId15"/>
-    <sheet name="MotorControl" sheetId="15" r:id="rId16"/>
-    <sheet name="Magnetics" sheetId="16" r:id="rId17"/>
-    <sheet name="LED" sheetId="17" r:id="rId18"/>
-    <sheet name="Quartz" sheetId="18" r:id="rId19"/>
-    <sheet name="Device" sheetId="19" r:id="rId20"/>
-    <sheet name="Sensors" sheetId="20" r:id="rId21"/>
-    <sheet name="OptoCoupler" sheetId="21" r:id="rId22"/>
-    <sheet name="DC-DC" sheetId="22" r:id="rId23"/>
+    <sheet name="VoltageRef" sheetId="24" r:id="rId5"/>
+    <sheet name="Diode" sheetId="5" r:id="rId6"/>
+    <sheet name="Transistor" sheetId="6" r:id="rId7"/>
+    <sheet name="OpAmp" sheetId="7" r:id="rId8"/>
+    <sheet name="Microcontroller" sheetId="8" r:id="rId9"/>
+    <sheet name="LinearVoltage" sheetId="9" r:id="rId10"/>
+    <sheet name="Contact" sheetId="23" r:id="rId11"/>
+    <sheet name="SMPScontrol" sheetId="10" r:id="rId12"/>
+    <sheet name="Logic" sheetId="11" r:id="rId13"/>
+    <sheet name="Interface" sheetId="12" r:id="rId14"/>
+    <sheet name="Protection" sheetId="13" r:id="rId15"/>
+    <sheet name="Drivers" sheetId="14" r:id="rId16"/>
+    <sheet name="MotorControl" sheetId="15" r:id="rId17"/>
+    <sheet name="Magnetics" sheetId="16" r:id="rId18"/>
+    <sheet name="LED" sheetId="17" r:id="rId19"/>
+    <sheet name="Quartz" sheetId="18" r:id="rId20"/>
+    <sheet name="Device" sheetId="19" r:id="rId21"/>
+    <sheet name="Sensors" sheetId="20" r:id="rId22"/>
+    <sheet name="OptoCoupler" sheetId="21" r:id="rId23"/>
+    <sheet name="DC-DC" sheetId="22" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="265">
   <si>
     <t>Part</t>
   </si>
@@ -714,6 +715,147 @@
   </si>
   <si>
     <t>Footprint Ref 5</t>
+  </si>
+  <si>
+    <t>Resistors.PcbLib</t>
+  </si>
+  <si>
+    <t>AR-0125W-6</t>
+  </si>
+  <si>
+    <t>AR-0125W-7.62</t>
+  </si>
+  <si>
+    <t>AR-0125W-VER</t>
+  </si>
+  <si>
+    <t>AR-025W-10</t>
+  </si>
+  <si>
+    <t>AR-025W-VER</t>
+  </si>
+  <si>
+    <t>AR-05W-12,7</t>
+  </si>
+  <si>
+    <t>AR-1W-15</t>
+  </si>
+  <si>
+    <t>AR-2W-20</t>
+  </si>
+  <si>
+    <t>AR-2W-VER</t>
+  </si>
+  <si>
+    <t>Capasitors.PcbLib</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>C1210</t>
+  </si>
+  <si>
+    <t>C1812</t>
+  </si>
+  <si>
+    <t>TCAP-A</t>
+  </si>
+  <si>
+    <t>TCAP-B</t>
+  </si>
+  <si>
+    <t>TCAP-C</t>
+  </si>
+  <si>
+    <t>TCAP-D</t>
+  </si>
+  <si>
+    <t>TCAP-E</t>
+  </si>
+  <si>
+    <t>ECAP-5X7</t>
+  </si>
+  <si>
+    <t>ECAP-5X11</t>
+  </si>
+  <si>
+    <t>ECAP-6X11</t>
+  </si>
+  <si>
+    <t>ECAP-8X12</t>
+  </si>
+  <si>
+    <t>ECAP-10X12</t>
+  </si>
+  <si>
+    <t>ECAP-10X20</t>
+  </si>
+  <si>
+    <t>ECAP-18X35</t>
+  </si>
+  <si>
+    <t>ECAP-10x5x14.5</t>
+  </si>
+  <si>
+    <t>ECAP-10x5x17.5</t>
+  </si>
+  <si>
+    <t>ECAP-10x5x22</t>
+  </si>
+  <si>
+    <t>ECAP-10x5x30</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x14</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x15</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x16.5</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x20</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x22</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x25</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x26.5</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x35.5</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x16.5</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x20</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x22</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x26.5</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x27</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x33.5</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x37</t>
   </si>
 </sst>
 </file>
@@ -1095,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A16"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,17 +1251,19 @@
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1136,31 +1280,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1170,32 +1320,38 @@
       <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1205,32 +1361,38 @@
       <c r="C3" t="s">
         <v>161</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1240,32 +1402,38 @@
       <c r="C4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1275,32 +1443,38 @@
       <c r="C5" t="s">
         <v>161</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1310,32 +1484,38 @@
       <c r="C6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1345,32 +1525,38 @@
       <c r="C7" t="s">
         <v>161</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1380,32 +1566,38 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1415,32 +1607,38 @@
       <c r="C9" t="s">
         <v>161</v>
       </c>
-      <c r="F9" t="s">
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1450,32 +1648,38 @@
       <c r="C10" t="s">
         <v>161</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
         <v>28</v>
       </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1485,32 +1689,38 @@
       <c r="C11" t="s">
         <v>161</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1520,32 +1730,38 @@
       <c r="C12" t="s">
         <v>161</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1555,32 +1771,38 @@
       <c r="C13" t="s">
         <v>161</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -1590,32 +1812,38 @@
       <c r="C14" t="s">
         <v>161</v>
       </c>
-      <c r="F14" t="s">
+      <c r="D14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
         <v>30</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -1625,32 +1853,38 @@
       <c r="C15" t="s">
         <v>161</v>
       </c>
-      <c r="F15" t="s">
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="O15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1660,38 +1894,44 @@
       <c r="C16" t="s">
         <v>161</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
         <v>30</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="4"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="4"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1701,29 +1941,41 @@
       <c r="C19" t="s">
         <v>161</v>
       </c>
+      <c r="D19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" t="s">
+        <v>219</v>
+      </c>
       <c r="F19" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" t="s">
         <v>9</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
         <v>27</v>
       </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="O19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1733,29 +1985,41 @@
       <c r="C20" t="s">
         <v>161</v>
       </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
       <c r="F20" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" t="s">
         <v>27</v>
       </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="O20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1765,29 +2029,41 @@
       <c r="C21" t="s">
         <v>161</v>
       </c>
+      <c r="D21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
       <c r="F21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" t="s">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
         <v>27</v>
       </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="O21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -1797,29 +2073,38 @@
       <c r="C22" t="s">
         <v>161</v>
       </c>
+      <c r="D22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
+      </c>
       <c r="F22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
         <v>28</v>
       </c>
-      <c r="J22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="O22" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1829,29 +2114,38 @@
       <c r="C23" t="s">
         <v>161</v>
       </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
       <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
         <v>28</v>
       </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="O23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1861,29 +2155,38 @@
       <c r="C24" t="s">
         <v>161</v>
       </c>
+      <c r="D24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
       <c r="F24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" t="s">
         <v>9</v>
       </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
         <v>28</v>
       </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="O24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1893,29 +2196,35 @@
       <c r="C25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="O25" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1925,29 +2234,35 @@
       <c r="C26" t="s">
         <v>161</v>
       </c>
-      <c r="F26" t="s">
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" t="s">
         <v>9</v>
       </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
         <v>29</v>
       </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="O26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1957,29 +2272,35 @@
       <c r="C27" t="s">
         <v>161</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
         <v>29</v>
       </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="O27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -1989,29 +2310,35 @@
       <c r="C28" t="s">
         <v>161</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
         <v>30</v>
       </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2021,29 +2348,35 @@
       <c r="C29" t="s">
         <v>161</v>
       </c>
-      <c r="F29" t="s">
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="H29" t="s">
         <v>9</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="O29" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2053,29 +2386,35 @@
       <c r="C30" t="s">
         <v>161</v>
       </c>
-      <c r="F30" t="s">
+      <c r="D30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" t="s">
         <v>9</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
         <v>30</v>
       </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="O30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2085,29 +2424,38 @@
       <c r="C31" t="s">
         <v>161</v>
       </c>
+      <c r="D31" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
       <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" t="s">
         <v>9</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
         <v>31</v>
       </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="N31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="O31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -2117,29 +2465,38 @@
       <c r="C32" t="s">
         <v>161</v>
       </c>
+      <c r="D32" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" t="s">
+        <v>226</v>
+      </c>
       <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
         <v>9</v>
       </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
         <v>31</v>
       </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="O32" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2149,29 +2506,38 @@
       <c r="C33" t="s">
         <v>161</v>
       </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" t="s">
         <v>9</v>
       </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
         <v>31</v>
       </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="O33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -2182,7 +2548,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -2193,7 +2559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -2204,7 +2570,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>168</v>
       </c>
@@ -2222,6 +2588,71 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
@@ -2746,64 +3177,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
@@ -2983,7 +3356,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3041,7 +3414,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3272,9 +3645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3282,7 +3655,7 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -3346,6 +3719,12 @@
       <c r="C3" t="s">
         <v>163</v>
       </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
@@ -3381,6 +3760,12 @@
       <c r="C4" t="s">
         <v>163</v>
       </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
@@ -3416,6 +3801,12 @@
       <c r="C5" t="s">
         <v>163</v>
       </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
@@ -3451,6 +3842,12 @@
       <c r="C6" t="s">
         <v>163</v>
       </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
       <c r="F6" t="s">
         <v>63</v>
       </c>
@@ -3486,6 +3883,12 @@
       <c r="C7" t="s">
         <v>163</v>
       </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
       <c r="F7" t="s">
         <v>63</v>
       </c>
@@ -3521,6 +3924,12 @@
       <c r="C9" t="s">
         <v>163</v>
       </c>
+      <c r="D9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
@@ -3556,6 +3965,12 @@
       <c r="C10" t="s">
         <v>163</v>
       </c>
+      <c r="D10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
@@ -3591,6 +4006,12 @@
       <c r="C11" t="s">
         <v>163</v>
       </c>
+      <c r="D11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" t="s">
+        <v>231</v>
+      </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
@@ -3626,6 +4047,12 @@
       <c r="C12" t="s">
         <v>163</v>
       </c>
+      <c r="D12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
@@ -3661,6 +4088,12 @@
       <c r="C13" t="s">
         <v>163</v>
       </c>
+      <c r="D13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
@@ -3705,6 +4138,12 @@
       <c r="C17" t="s">
         <v>164</v>
       </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" t="s">
+        <v>234</v>
+      </c>
       <c r="F17" t="s">
         <v>79</v>
       </c>
@@ -3740,6 +4179,12 @@
       <c r="C18" t="s">
         <v>164</v>
       </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -3775,6 +4220,12 @@
       <c r="C19" t="s">
         <v>164</v>
       </c>
+      <c r="D19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" t="s">
+        <v>236</v>
+      </c>
       <c r="F19" t="s">
         <v>79</v>
       </c>
@@ -3810,6 +4261,12 @@
       <c r="C20" t="s">
         <v>164</v>
       </c>
+      <c r="D20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" t="s">
+        <v>237</v>
+      </c>
       <c r="F20" t="s">
         <v>79</v>
       </c>
@@ -3845,6 +4302,12 @@
       <c r="C21" t="s">
         <v>164</v>
       </c>
+      <c r="D21" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
       <c r="F21" t="s">
         <v>79</v>
       </c>
@@ -3885,6 +4348,12 @@
       <c r="C25" t="s">
         <v>164</v>
       </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>239</v>
+      </c>
       <c r="F25" t="s">
         <v>80</v>
       </c>
@@ -3920,6 +4389,12 @@
       <c r="C26" t="s">
         <v>164</v>
       </c>
+      <c r="D26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" t="s">
+        <v>240</v>
+      </c>
       <c r="F26" t="s">
         <v>80</v>
       </c>
@@ -3955,6 +4430,12 @@
       <c r="C27" t="s">
         <v>164</v>
       </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>241</v>
+      </c>
       <c r="F27" t="s">
         <v>80</v>
       </c>
@@ -3990,6 +4471,12 @@
       <c r="C28" t="s">
         <v>164</v>
       </c>
+      <c r="D28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E28" t="s">
+        <v>242</v>
+      </c>
       <c r="F28" t="s">
         <v>80</v>
       </c>
@@ -4025,6 +4512,12 @@
       <c r="C29" t="s">
         <v>164</v>
       </c>
+      <c r="D29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" t="s">
+        <v>243</v>
+      </c>
       <c r="F29" t="s">
         <v>80</v>
       </c>
@@ -4060,6 +4553,12 @@
       <c r="C30" t="s">
         <v>164</v>
       </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
+      </c>
       <c r="F30" t="s">
         <v>80</v>
       </c>
@@ -4095,6 +4594,12 @@
       <c r="C31" t="s">
         <v>164</v>
       </c>
+      <c r="D31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E31" t="s">
+        <v>246</v>
+      </c>
       <c r="F31" t="s">
         <v>80</v>
       </c>
@@ -4130,6 +4635,12 @@
       <c r="C32" t="s">
         <v>164</v>
       </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
+        <v>247</v>
+      </c>
       <c r="F32" t="s">
         <v>80</v>
       </c>
@@ -4165,6 +4676,12 @@
       <c r="C33" t="s">
         <v>164</v>
       </c>
+      <c r="D33" t="s">
+        <v>228</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
       <c r="F33" t="s">
         <v>80</v>
       </c>
@@ -4200,6 +4717,12 @@
       <c r="C34" t="s">
         <v>164</v>
       </c>
+      <c r="D34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" t="s">
+        <v>249</v>
+      </c>
       <c r="F34" t="s">
         <v>80</v>
       </c>
@@ -4235,6 +4758,12 @@
       <c r="C35" t="s">
         <v>164</v>
       </c>
+      <c r="D35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" t="s">
+        <v>250</v>
+      </c>
       <c r="F35" t="s">
         <v>80</v>
       </c>
@@ -4270,6 +4799,12 @@
       <c r="C36" t="s">
         <v>164</v>
       </c>
+      <c r="D36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
       <c r="F36" t="s">
         <v>80</v>
       </c>
@@ -4305,6 +4840,12 @@
       <c r="C37" t="s">
         <v>164</v>
       </c>
+      <c r="D37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" t="s">
+        <v>252</v>
+      </c>
       <c r="F37" t="s">
         <v>80</v>
       </c>
@@ -4340,6 +4881,12 @@
       <c r="C38" t="s">
         <v>164</v>
       </c>
+      <c r="D38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" t="s">
+        <v>253</v>
+      </c>
       <c r="F38" t="s">
         <v>80</v>
       </c>
@@ -4375,6 +4922,12 @@
       <c r="C39" t="s">
         <v>164</v>
       </c>
+      <c r="D39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" t="s">
+        <v>254</v>
+      </c>
       <c r="F39" t="s">
         <v>80</v>
       </c>
@@ -4410,6 +4963,12 @@
       <c r="C40" t="s">
         <v>164</v>
       </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
       <c r="F40" t="s">
         <v>80</v>
       </c>
@@ -4445,6 +5004,12 @@
       <c r="C41" t="s">
         <v>164</v>
       </c>
+      <c r="D41" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" t="s">
+        <v>256</v>
+      </c>
       <c r="F41" t="s">
         <v>80</v>
       </c>
@@ -4480,6 +5045,12 @@
       <c r="C42" t="s">
         <v>164</v>
       </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
       <c r="F42" t="s">
         <v>80</v>
       </c>
@@ -4515,6 +5086,12 @@
       <c r="C43" t="s">
         <v>164</v>
       </c>
+      <c r="D43" t="s">
+        <v>228</v>
+      </c>
+      <c r="E43" t="s">
+        <v>258</v>
+      </c>
       <c r="F43" t="s">
         <v>80</v>
       </c>
@@ -4550,6 +5127,12 @@
       <c r="C44" t="s">
         <v>164</v>
       </c>
+      <c r="D44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E44" t="s">
+        <v>259</v>
+      </c>
       <c r="F44" t="s">
         <v>80</v>
       </c>
@@ -4585,6 +5168,12 @@
       <c r="C45" t="s">
         <v>164</v>
       </c>
+      <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" t="s">
+        <v>260</v>
+      </c>
       <c r="F45" t="s">
         <v>80</v>
       </c>
@@ -4620,6 +5209,12 @@
       <c r="C46" t="s">
         <v>164</v>
       </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
       <c r="F46" t="s">
         <v>80</v>
       </c>
@@ -4655,6 +5250,12 @@
       <c r="C47" t="s">
         <v>164</v>
       </c>
+      <c r="D47" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" t="s">
+        <v>262</v>
+      </c>
       <c r="F47" t="s">
         <v>80</v>
       </c>
@@ -4690,6 +5291,12 @@
       <c r="C48" t="s">
         <v>164</v>
       </c>
+      <c r="D48" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" t="s">
+        <v>263</v>
+      </c>
       <c r="F48" t="s">
         <v>80</v>
       </c>
@@ -4725,6 +5332,12 @@
       <c r="C49" t="s">
         <v>164</v>
       </c>
+      <c r="D49" t="s">
+        <v>228</v>
+      </c>
+      <c r="E49" t="s">
+        <v>264</v>
+      </c>
       <c r="F49" t="s">
         <v>80</v>
       </c>
@@ -4759,6 +5372,12 @@
       </c>
       <c r="C50" t="s">
         <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" t="s">
+        <v>245</v>
       </c>
       <c r="F50" t="s">
         <v>80</v>
@@ -5022,11 +5641,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -5164,7 +5841,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5390,18 +6067,11 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Sensors" sheetId="20" r:id="rId22"/>
     <sheet name="OptoCoupler" sheetId="21" r:id="rId23"/>
     <sheet name="DC-DC" sheetId="22" r:id="rId24"/>
+    <sheet name="Лист1" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="408">
   <si>
     <t>Part</t>
   </si>
@@ -857,6 +858,453 @@
   <si>
     <t>ECAP-16x7.5x37</t>
   </si>
+  <si>
+    <t>LTS 25-NP</t>
+  </si>
+  <si>
+    <t>Sensor.SchLib</t>
+  </si>
+  <si>
+    <t>CurSen</t>
+  </si>
+  <si>
+    <t>Sensor.PcbLib</t>
+  </si>
+  <si>
+    <t>Датчик тока</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>GaiinBandwidth</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Sensing</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,25%</t>
+    </r>
+  </si>
+  <si>
+    <t>200 kHz</t>
+  </si>
+  <si>
+    <t>25 A</t>
+  </si>
+  <si>
+    <t>25 mV/A</t>
+  </si>
+  <si>
+    <t>5 V</t>
+  </si>
+  <si>
+    <t>-40…+85°C</t>
+  </si>
+  <si>
+    <t>BYV42E</t>
+  </si>
+  <si>
+    <t>DiodeDual1</t>
+  </si>
+  <si>
+    <t>Diode.SchLib</t>
+  </si>
+  <si>
+    <t>TO.PcbLib</t>
+  </si>
+  <si>
+    <t>TO220AB</t>
+  </si>
+  <si>
+    <t>TO220AB-1</t>
+  </si>
+  <si>
+    <t>TO220AB-2</t>
+  </si>
+  <si>
+    <t>Диод</t>
+  </si>
+  <si>
+    <t>=Footprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Drop</t>
+  </si>
+  <si>
+    <t>Recovery Time</t>
+  </si>
+  <si>
+    <t>15 A</t>
+  </si>
+  <si>
+    <t>200 V</t>
+  </si>
+  <si>
+    <t>0.85 V</t>
+  </si>
+  <si>
+    <t>28 ns</t>
+  </si>
+  <si>
+    <t>Dual Ultrafast</t>
+  </si>
+  <si>
+    <t>HGTG12N60A4D</t>
+  </si>
+  <si>
+    <t>Transistor.SchLib</t>
+  </si>
+  <si>
+    <t>IGBT</t>
+  </si>
+  <si>
+    <t>TO247</t>
+  </si>
+  <si>
+    <t>TO247-1</t>
+  </si>
+  <si>
+    <t>TO247-2</t>
+  </si>
+  <si>
+    <t>Транзистор</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CurrentCE</t>
+  </si>
+  <si>
+    <t>Gate Charge</t>
+  </si>
+  <si>
+    <t>MaxPower</t>
+  </si>
+  <si>
+    <t>Time On/Off</t>
+  </si>
+  <si>
+    <t>Voltage Saturation</t>
+  </si>
+  <si>
+    <t>600 V</t>
+  </si>
+  <si>
+    <t>2.7 V</t>
+  </si>
+  <si>
+    <t>-55…150°C</t>
+  </si>
+  <si>
+    <t>17/170 ns</t>
+  </si>
+  <si>
+    <t>167 W</t>
+  </si>
+  <si>
+    <t>120 nC</t>
+  </si>
+  <si>
+    <t>9-54 A</t>
+  </si>
+  <si>
+    <t>Magnetics.SchLib</t>
+  </si>
+  <si>
+    <t>BuckQR: L resonant</t>
+  </si>
+  <si>
+    <t>Inductance</t>
+  </si>
+  <si>
+    <t>Magnetics.PcbLib</t>
+  </si>
+  <si>
+    <t>E42/21/15-Custom</t>
+  </si>
+  <si>
+    <t>Дроссель</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>38 uH</t>
+  </si>
+  <si>
+    <t>E42/21/15 (G-0.64)</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6 BluePill</t>
+  </si>
+  <si>
+    <t>MCU.SchLib</t>
+  </si>
+  <si>
+    <t>Custom.PcbLib</t>
+  </si>
+  <si>
+    <t>STM32F103 BluePill</t>
+  </si>
+  <si>
+    <t>MCP6004</t>
+  </si>
+  <si>
+    <t>OpAmp.SchLib</t>
+  </si>
+  <si>
+    <t>4in1</t>
+  </si>
+  <si>
+    <t>Footprint Path 2</t>
+  </si>
+  <si>
+    <t>Footprint Path 3</t>
+  </si>
+  <si>
+    <t>DIP.PcbLib</t>
+  </si>
+  <si>
+    <t>SOIC.PcbLib</t>
+  </si>
+  <si>
+    <t>SSOP.PcbLib</t>
+  </si>
+  <si>
+    <t>DIP-14</t>
+  </si>
+  <si>
+    <t>SOIC-14</t>
+  </si>
+  <si>
+    <t>TSSOP-14</t>
+  </si>
+  <si>
+    <t>Операционный усилитель</t>
+  </si>
+  <si>
+    <t>IR2113</t>
+  </si>
+  <si>
+    <t>Driver.SchLib</t>
+  </si>
+  <si>
+    <t>IR2110(3)</t>
+  </si>
+  <si>
+    <t>WSOIC-16</t>
+  </si>
+  <si>
+    <t>Драйвер</t>
+  </si>
+  <si>
+    <t>High and Low</t>
+  </si>
+  <si>
+    <t>MURS260T3G</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Diode.PcbLib</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>MURS360T3G</t>
+  </si>
+  <si>
+    <t>SMC</t>
+  </si>
+  <si>
+    <t>2 A</t>
+  </si>
+  <si>
+    <t>3 A</t>
+  </si>
+  <si>
+    <t>50 ns</t>
+  </si>
+  <si>
+    <t>-40…+150°C</t>
+  </si>
+  <si>
+    <t>1.45 V</t>
+  </si>
+  <si>
+    <t>-60…+175°C</t>
+  </si>
+  <si>
+    <t>1.25 V</t>
+  </si>
+  <si>
+    <t>Contact.PcbLib</t>
+  </si>
+  <si>
+    <t>PLS-2</t>
+  </si>
+  <si>
+    <t>PLS-3</t>
+  </si>
+  <si>
+    <t>PLS-4</t>
+  </si>
+  <si>
+    <t>PLS-5</t>
+  </si>
+  <si>
+    <t>PLS-6</t>
+  </si>
+  <si>
+    <t>PLS-7</t>
+  </si>
+  <si>
+    <t>PLS-8</t>
+  </si>
+  <si>
+    <t>PLS-10</t>
+  </si>
+  <si>
+    <t>PLS-12</t>
+  </si>
+  <si>
+    <t>PLS-14</t>
+  </si>
+  <si>
+    <t>PLS-16</t>
+  </si>
+  <si>
+    <t>PLS-20</t>
+  </si>
+  <si>
+    <t>PBS-4</t>
+  </si>
+  <si>
+    <t>PBS-5</t>
+  </si>
+  <si>
+    <t>PBS-6</t>
+  </si>
+  <si>
+    <t>PBS-7</t>
+  </si>
+  <si>
+    <t>PBS-8</t>
+  </si>
+  <si>
+    <t>PBS-10</t>
+  </si>
+  <si>
+    <t>DG-5-2</t>
+  </si>
+  <si>
+    <t>DG-5-3</t>
+  </si>
+  <si>
+    <t>DG-5-4</t>
+  </si>
+  <si>
+    <t>DG-5-5</t>
+  </si>
+  <si>
+    <t>DG-5-6</t>
+  </si>
+  <si>
+    <t>DG-5-7</t>
+  </si>
+  <si>
+    <t>DG-5-8</t>
+  </si>
+  <si>
+    <t>DG-5-9</t>
+  </si>
+  <si>
+    <t>DG-5-10</t>
+  </si>
+  <si>
+    <t>Testpoint</t>
+  </si>
+  <si>
+    <t>TP-GREEN</t>
+  </si>
+  <si>
+    <t>TP-BLACK</t>
+  </si>
+  <si>
+    <t>TP-WHITE</t>
+  </si>
+  <si>
+    <t>TP-RED</t>
+  </si>
+  <si>
+    <t>TP-YELLOW</t>
+  </si>
+  <si>
+    <t>Jumper-2</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>HCPL-0630</t>
+  </si>
+  <si>
+    <t>Opto.SchLib</t>
+  </si>
+  <si>
+    <t>SO.PcbLib</t>
+  </si>
+  <si>
+    <t>SOIC-8</t>
+  </si>
+  <si>
+    <t>К78-2 150нФ</t>
+  </si>
+  <si>
+    <t>K78-2</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +1313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +1359,12 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -948,7 +1402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -956,6 +1410,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2654,22 +3109,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2742,6 +3197,9 @@
       <c r="C2" t="s">
         <v>174</v>
       </c>
+      <c r="D2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2753,6 +3211,15 @@
       <c r="C3" t="s">
         <v>173</v>
       </c>
+      <c r="D3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2764,6 +3231,15 @@
       <c r="C4" t="s">
         <v>175</v>
       </c>
+      <c r="D4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G4" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2775,6 +3251,18 @@
       <c r="C5" t="s">
         <v>176</v>
       </c>
+      <c r="D5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2786,6 +3274,18 @@
       <c r="C6" t="s">
         <v>177</v>
       </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F6" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2797,6 +3297,18 @@
       <c r="C7" t="s">
         <v>178</v>
       </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2808,6 +3320,18 @@
       <c r="C8" t="s">
         <v>179</v>
       </c>
+      <c r="D8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G8" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2819,6 +3343,18 @@
       <c r="C9" t="s">
         <v>180</v>
       </c>
+      <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2830,6 +3366,12 @@
       <c r="C10" t="s">
         <v>181</v>
       </c>
+      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2841,6 +3383,18 @@
       <c r="C11" t="s">
         <v>182</v>
       </c>
+      <c r="D11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" t="s">
+        <v>384</v>
+      </c>
+      <c r="G11" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2852,6 +3406,9 @@
       <c r="C12" t="s">
         <v>183</v>
       </c>
+      <c r="D12" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2863,6 +3420,12 @@
       <c r="C13" t="s">
         <v>184</v>
       </c>
+      <c r="D13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E13" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2874,6 +3437,9 @@
       <c r="C14" t="s">
         <v>185</v>
       </c>
+      <c r="D14" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2885,6 +3451,12 @@
       <c r="C15" t="s">
         <v>186</v>
       </c>
+      <c r="D15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2896,8 +3468,11 @@
       <c r="C16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -2907,8 +3482,14 @@
       <c r="C17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2918,8 +3499,11 @@
       <c r="C18" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2929,8 +3513,11 @@
       <c r="C19" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2940,8 +3527,11 @@
       <c r="C20" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -2951,8 +3541,14 @@
       <c r="C21" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>366</v>
+      </c>
+      <c r="E21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -2962,8 +3558,11 @@
       <c r="C22" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2973,8 +3572,11 @@
       <c r="C23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -2984,8 +3586,11 @@
       <c r="C24" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2995,8 +3600,11 @@
       <c r="C25" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -3006,8 +3614,11 @@
       <c r="C26" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -3017,8 +3628,11 @@
       <c r="C27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -3028,8 +3642,11 @@
       <c r="C28" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -3039,8 +3656,11 @@
       <c r="C29" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3050,8 +3670,11 @@
       <c r="C30" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -3061,8 +3684,11 @@
       <c r="C31" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -3072,8 +3698,11 @@
       <c r="C32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -3083,8 +3712,11 @@
       <c r="C33" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -3094,8 +3726,11 @@
       <c r="C34" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -3105,8 +3740,11 @@
       <c r="C35" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -3116,8 +3754,11 @@
       <c r="C36" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -3127,8 +3768,11 @@
       <c r="C37" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3138,8 +3782,11 @@
       <c r="C38" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -3149,8 +3796,11 @@
       <c r="C39" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -3160,8 +3810,11 @@
       <c r="C40" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -3170,6 +3823,55 @@
       </c>
       <c r="C41" t="s">
         <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>394</v>
+      </c>
+      <c r="D44" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" t="s">
+        <v>395</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>397</v>
+      </c>
+      <c r="H44" t="s">
+        <v>398</v>
+      </c>
+      <c r="I44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D47" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3411,16 +4113,22 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3434,34 +4142,78 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>347</v>
+      </c>
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>341</v>
+      </c>
+      <c r="G17" t="s">
+        <v>343</v>
+      </c>
+      <c r="H17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J17" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" t="s">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3527,16 +4279,25 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3559,25 +4320,44 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" t="s">
+        <v>329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3645,9 +4425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5527,16 +6307,30 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5559,27 +6353,71 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>6</v>
+        <v>271</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>275</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" t="s">
+        <v>278</v>
+      </c>
+      <c r="K2" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5589,10 +6427,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -5635,7 +6480,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5695,6 +6556,18 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5764,9 +6637,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5824,7 +6697,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5890,16 +6779,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5916,31 +6819,280 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5948,16 +7100,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:38" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5974,31 +7143,842 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6006,16 +7986,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -6029,34 +8018,77 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6068,10 +8100,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -6114,7 +8153,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="417">
   <si>
     <t>Part</t>
   </si>
@@ -1304,6 +1304,33 @@
   </si>
   <si>
     <t>K78-2</t>
+  </si>
+  <si>
+    <t>PLS-Jump</t>
+  </si>
+  <si>
+    <t>LM1117DT-5.0/NOPB</t>
+  </si>
+  <si>
+    <t>Voltage.SchLib</t>
+  </si>
+  <si>
+    <t>SOT.PcbLib</t>
+  </si>
+  <si>
+    <t>SOT223</t>
+  </si>
+  <si>
+    <t>VolReg-GOI</t>
+  </si>
+  <si>
+    <t>REF3325AIDBZT</t>
+  </si>
+  <si>
+    <t>VolReg-IOG</t>
+  </si>
+  <si>
+    <t>SOT23</t>
   </si>
 </sst>
 </file>
@@ -3044,18 +3071,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -3102,6 +3129,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3112,8 +3156,8 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,7 +3261,7 @@
       <c r="E3" t="s">
         <v>367</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3237,7 +3281,7 @@
       <c r="E4" t="s">
         <v>368</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
         <v>386</v>
       </c>
     </row>
@@ -3258,10 +3302,10 @@
         <v>369</v>
       </c>
       <c r="F5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" t="s">
         <v>379</v>
-      </c>
-      <c r="G5" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3281,10 +3325,10 @@
         <v>370</v>
       </c>
       <c r="F6" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" t="s">
         <v>380</v>
-      </c>
-      <c r="G6" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3304,10 +3348,10 @@
         <v>371</v>
       </c>
       <c r="F7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G7" t="s">
         <v>381</v>
-      </c>
-      <c r="G7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -3327,10 +3371,10 @@
         <v>372</v>
       </c>
       <c r="F8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G8" t="s">
         <v>382</v>
-      </c>
-      <c r="G8" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -3350,10 +3394,10 @@
         <v>373</v>
       </c>
       <c r="F9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" t="s">
         <v>383</v>
-      </c>
-      <c r="G9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3369,7 +3413,7 @@
       <c r="D10" t="s">
         <v>366</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>392</v>
       </c>
     </row>
@@ -3390,10 +3434,10 @@
         <v>374</v>
       </c>
       <c r="F11" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" t="s">
         <v>384</v>
-      </c>
-      <c r="G11" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3871,7 +3915,7 @@
         <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4117,7 +4161,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,7 +4327,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4426,7 +4470,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
@@ -6311,7 +6355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6427,7 +6471,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6637,9 +6681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,12 +6767,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -6771,7 +6818,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" t="s">
+        <v>416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6783,7 +6846,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7104,7 +7167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7990,7 +8053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8100,7 +8163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" firstSheet="3" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="460">
   <si>
     <t>Part</t>
   </si>
@@ -1294,9 +1294,6 @@
     <t>Opto.SchLib</t>
   </si>
   <si>
-    <t>SO.PcbLib</t>
-  </si>
-  <si>
     <t>SOIC-8</t>
   </si>
   <si>
@@ -1331,6 +1328,138 @@
   </si>
   <si>
     <t>SOT23</t>
+  </si>
+  <si>
+    <t>DG-3.5-2</t>
+  </si>
+  <si>
+    <t>MOSFET_N_GDS</t>
+  </si>
+  <si>
+    <t>IRF530NPBF</t>
+  </si>
+  <si>
+    <t>N-Mosfet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 A </t>
+  </si>
+  <si>
+    <t>37 nC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 W </t>
+  </si>
+  <si>
+    <t>-55…175°C</t>
+  </si>
+  <si>
+    <t>31/60</t>
+  </si>
+  <si>
+    <t>2П767Ж</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>100 W</t>
+  </si>
+  <si>
+    <t>100 V</t>
+  </si>
+  <si>
+    <t>16 A</t>
+  </si>
+  <si>
+    <t>+125°C</t>
+  </si>
+  <si>
+    <t>4116.4-3</t>
+  </si>
+  <si>
+    <t>142ЕН8Б</t>
+  </si>
+  <si>
+    <t>VolRegRus</t>
+  </si>
+  <si>
+    <t>Стабилизаторы напряжения</t>
+  </si>
+  <si>
+    <t>Input voltage</t>
+  </si>
+  <si>
+    <t>Output voltage</t>
+  </si>
+  <si>
+    <t>12 V</t>
+  </si>
+  <si>
+    <t>35 V</t>
+  </si>
+  <si>
+    <t>1,5 A</t>
+  </si>
+  <si>
+    <t>1308ЕУ3БУ</t>
+  </si>
+  <si>
+    <t>Н04.16-2В</t>
+  </si>
+  <si>
+    <t>2Д510А/ББ</t>
+  </si>
+  <si>
+    <t>2Д814А</t>
+  </si>
+  <si>
+    <t>DO-SOD.PcbLib</t>
+  </si>
+  <si>
+    <t>SOD-87</t>
+  </si>
+  <si>
+    <t>Диод импульсный</t>
+  </si>
+  <si>
+    <t>КД-34</t>
+  </si>
+  <si>
+    <t>0,15 А</t>
+  </si>
+  <si>
+    <t>1 V</t>
+  </si>
+  <si>
+    <t>4 ns</t>
+  </si>
+  <si>
+    <t>75 V</t>
+  </si>
+  <si>
+    <t>50 V</t>
+  </si>
+  <si>
+    <t>0,2 V</t>
+  </si>
+  <si>
+    <t>1,1 V</t>
+  </si>
+  <si>
+    <t>564ЛН2Т</t>
+  </si>
+  <si>
+    <t>ШЕСТЬ ЛОГИЧЕСКИХ ЭЛЕМЕНТОВ "НЕ"</t>
+  </si>
+  <si>
+    <t>401.14-5</t>
+  </si>
+  <si>
+    <t>MC33035</t>
+  </si>
+  <si>
+    <t>SOIC-24</t>
   </si>
 </sst>
 </file>
@@ -3071,11 +3200,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3085,6 +3214,10 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3110,13 +3243,13 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>12</v>
+        <v>435</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>8</v>
@@ -3131,19 +3264,51 @@
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>411</v>
       </c>
-      <c r="E6" t="s">
-        <v>412</v>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F8" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H8" t="s">
+        <v>438</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3156,8 +3321,8 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A44" sqref="A44:A47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3264,6 +3429,9 @@
       <c r="F3" t="s">
         <v>385</v>
       </c>
+      <c r="G3" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3915,7 +4083,7 @@
         <v>366</v>
       </c>
       <c r="E47" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3983,14 +4151,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -4034,6 +4208,31 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4157,17 +4356,18 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="18" customWidth="1"/>
   </cols>
@@ -4228,33 +4428,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>347</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B2" t="s">
         <v>348</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C2" t="s">
         <v>349</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D2" t="s">
         <v>340</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E2" t="s">
         <v>341</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G2" t="s">
         <v>343</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H2" t="s">
         <v>350</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J2" t="s">
         <v>351</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K8" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4267,12 +4494,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -4315,7 +4548,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6471,7 +6720,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6535,10 +6784,10 @@
         <v>402</v>
       </c>
       <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
         <v>404</v>
-      </c>
-      <c r="E2" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6743,7 +6992,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6755,7 +7004,7 @@
         <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6767,7 +7016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
@@ -6820,19 +7069,19 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
         <v>414</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>410</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>415</v>
-      </c>
-      <c r="D2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E2" t="s">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6842,11 +7091,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,6 +7106,7 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -7137,7 +7387,9 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -7156,8 +7408,67 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
     </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>442</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="K10" t="s">
+        <v>453</v>
+      </c>
+      <c r="L10" t="s">
+        <v>450</v>
+      </c>
+      <c r="N10" t="s">
+        <v>452</v>
+      </c>
+      <c r="O10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K11" t="s">
+        <v>448</v>
+      </c>
+      <c r="L11" t="s">
+        <v>450</v>
+      </c>
+      <c r="N11" t="s">
+        <v>451</v>
+      </c>
+      <c r="O11" t="s">
+        <v>449</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7167,7 +7478,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7323,22 +7634,54 @@
       <c r="AL2" s="4"/>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
@@ -7483,7 +7826,9 @@
       <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -7523,22 +7868,50 @@
       <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" firstSheet="3" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="487">
   <si>
     <t>Part</t>
   </si>
@@ -1461,6 +1461,87 @@
   <si>
     <t>SOIC-24</t>
   </si>
+  <si>
+    <t>ДФК240-2В/20,0</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>ДФК240</t>
+  </si>
+  <si>
+    <t>Дроссель подавления ЭМП</t>
+  </si>
+  <si>
+    <t>220 uH</t>
+  </si>
+  <si>
+    <t>K73-17</t>
+  </si>
+  <si>
+    <t>K73-17(12x5,5x10)</t>
+  </si>
+  <si>
+    <t>ECAP-16x7.5x26.5R</t>
+  </si>
+  <si>
+    <t>AM5T-2405SZ</t>
+  </si>
+  <si>
+    <t>VolReg(AM5T-2405sz)</t>
+  </si>
+  <si>
+    <t>AM15E-Z</t>
+  </si>
+  <si>
+    <t>VolReg(AM15E-2415sz)</t>
+  </si>
+  <si>
+    <t>AM15E-2415sz</t>
+  </si>
+  <si>
+    <t>CP2102</t>
+  </si>
+  <si>
+    <t>Interface.SchLib</t>
+  </si>
+  <si>
+    <t>QFN.PcbLib</t>
+  </si>
+  <si>
+    <t>SN75176A</t>
+  </si>
+  <si>
+    <t>MLP-28</t>
+  </si>
+  <si>
+    <t>STM32F030C8</t>
+  </si>
+  <si>
+    <t>LQFP-48</t>
+  </si>
+  <si>
+    <t>QFP.PcbLib</t>
+  </si>
+  <si>
+    <t>LTC2983</t>
+  </si>
+  <si>
+    <t>LM117</t>
+  </si>
+  <si>
+    <t>LM2596</t>
+  </si>
+  <si>
+    <t>VolReg-LM2596</t>
+  </si>
+  <si>
+    <t>TO263-5</t>
+  </si>
+  <si>
+    <t>VolReg-LM117</t>
+  </si>
 </sst>
 </file>
 
@@ -1469,12 +1550,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1556,17 +1645,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3200,11 +3290,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,7 +3302,7 @@
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
@@ -3261,53 +3351,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>408</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B3" t="s">
         <v>409</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C3" t="s">
         <v>412</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D3" t="s">
         <v>410</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>432</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B4" t="s">
         <v>409</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C4" t="s">
         <v>433</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D4" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F4" t="s">
         <v>434</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H4" t="s">
         <v>438</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J4" t="s">
         <v>439</v>
       </c>
     </row>
@@ -4097,10 +4203,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -4143,7 +4255,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" t="s">
+        <v>485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4240,14 +4368,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -4290,7 +4425,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C2" t="s">
+        <v>473</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4494,8 +4662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4572,11 +4740,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4649,6 +4817,32 @@
       </c>
       <c r="H2" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" t="s">
+        <v>464</v>
+      </c>
+      <c r="I7" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4716,11 +4910,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D5"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,15 +4922,15 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="45.42578125" customWidth="1"/>
-    <col min="13" max="13" width="55.5703125" customWidth="1"/>
+    <col min="4" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
+    <col min="13" max="13" width="45.42578125" customWidth="1"/>
+    <col min="14" max="14" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4750,39 +4944,42 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -4795,18 +4992,15 @@
       <c r="D3" t="s">
         <v>228</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>229</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>107</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -4816,14 +5010,17 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
@@ -4836,18 +5033,15 @@
       <c r="D4" t="s">
         <v>228</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>230</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>108</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
@@ -4857,14 +5051,17 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -4877,18 +5074,15 @@
       <c r="D5" t="s">
         <v>228</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>231</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>109</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
@@ -4898,14 +5092,17 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -4918,18 +5115,15 @@
       <c r="D6" t="s">
         <v>228</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>232</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>110</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" t="s">
         <v>11</v>
       </c>
@@ -4939,14 +5133,17 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -4959,18 +5156,15 @@
       <c r="D7" t="s">
         <v>228</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>233</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>111</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
@@ -4980,14 +5174,17 @@
       <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -5000,18 +5197,15 @@
       <c r="D9" t="s">
         <v>228</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>229</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>107</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
       <c r="I9" t="s">
         <v>11</v>
       </c>
@@ -5021,14 +5215,17 @@
       <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="N9" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -5041,18 +5238,15 @@
       <c r="D10" t="s">
         <v>228</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>230</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>108</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
@@ -5062,14 +5256,17 @@
       <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -5082,18 +5279,15 @@
       <c r="D11" t="s">
         <v>228</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>231</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
       <c r="I11" t="s">
         <v>11</v>
       </c>
@@ -5103,14 +5297,17 @@
       <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -5123,18 +5320,15 @@
       <c r="D12" t="s">
         <v>228</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>232</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>113</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
       <c r="I12" t="s">
         <v>11</v>
       </c>
@@ -5144,14 +5338,17 @@
       <c r="K12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -5164,18 +5361,15 @@
       <c r="D13" t="s">
         <v>228</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>233</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>114</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
       <c r="I13" t="s">
         <v>11</v>
       </c>
@@ -5185,23 +5379,26 @@
       <c r="K13" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="N13" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L14" s="1"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -5214,18 +5411,15 @@
       <c r="D17" t="s">
         <v>228</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>234</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>79</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>74</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
       <c r="I17" t="s">
         <v>11</v>
       </c>
@@ -5235,14 +5429,17 @@
       <c r="K17" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -5255,18 +5452,15 @@
       <c r="D18" t="s">
         <v>228</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>235</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>79</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>75</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
       <c r="I18" t="s">
         <v>11</v>
       </c>
@@ -5276,14 +5470,17 @@
       <c r="K18" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -5296,18 +5493,15 @@
       <c r="D19" t="s">
         <v>228</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>236</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>79</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
       <c r="I19" t="s">
         <v>11</v>
       </c>
@@ -5317,14 +5511,17 @@
       <c r="K19" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="N19" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -5337,18 +5534,15 @@
       <c r="D20" t="s">
         <v>228</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>237</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>79</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
       <c r="I20" t="s">
         <v>11</v>
       </c>
@@ -5358,14 +5552,17 @@
       <c r="K20" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="N20" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -5378,18 +5575,15 @@
       <c r="D21" t="s">
         <v>228</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>238</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>79</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>78</v>
       </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
       <c r="I21" t="s">
         <v>11</v>
       </c>
@@ -5399,19 +5593,22 @@
       <c r="K21" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -5424,18 +5621,15 @@
       <c r="D25" t="s">
         <v>228</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>239</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>80</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>81</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
       <c r="I25" t="s">
         <v>11</v>
       </c>
@@ -5445,14 +5639,17 @@
       <c r="K25" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -5465,18 +5662,15 @@
       <c r="D26" t="s">
         <v>228</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>240</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>80</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
       <c r="I26" t="s">
         <v>11</v>
       </c>
@@ -5486,14 +5680,17 @@
       <c r="K26" t="s">
         <v>11</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="N26" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>83</v>
       </c>
@@ -5506,18 +5703,15 @@
       <c r="D27" t="s">
         <v>228</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>241</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>83</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
       <c r="I27" t="s">
         <v>11</v>
       </c>
@@ -5527,14 +5721,17 @@
       <c r="K27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="N27" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -5547,18 +5744,15 @@
       <c r="D28" t="s">
         <v>228</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>242</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
       <c r="I28" t="s">
         <v>11</v>
       </c>
@@ -5568,14 +5762,17 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M28" s="4" t="s">
+      <c r="N28" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>85</v>
       </c>
@@ -5588,18 +5785,15 @@
       <c r="D29" t="s">
         <v>228</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>243</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>80</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>85</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
       <c r="I29" t="s">
         <v>11</v>
       </c>
@@ -5609,14 +5803,17 @@
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="N29" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -5629,18 +5826,15 @@
       <c r="D30" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>244</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>80</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>86</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
       <c r="I30" t="s">
         <v>11</v>
       </c>
@@ -5650,14 +5844,17 @@
       <c r="K30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="N30" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -5670,18 +5867,15 @@
       <c r="D31" t="s">
         <v>228</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>246</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>80</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>87</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
       <c r="I31" t="s">
         <v>11</v>
       </c>
@@ -5691,14 +5885,17 @@
       <c r="K31" t="s">
         <v>11</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="N31" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>88</v>
       </c>
@@ -5711,18 +5908,15 @@
       <c r="D32" t="s">
         <v>228</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>247</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>88</v>
       </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
       <c r="I32" t="s">
         <v>11</v>
       </c>
@@ -5732,14 +5926,17 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="N32" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -5752,18 +5949,15 @@
       <c r="D33" t="s">
         <v>228</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>248</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>80</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>89</v>
       </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
       <c r="I33" t="s">
         <v>11</v>
       </c>
@@ -5773,14 +5967,17 @@
       <c r="K33" t="s">
         <v>11</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="4" t="s">
+      <c r="N33" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -5793,18 +5990,15 @@
       <c r="D34" t="s">
         <v>228</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>249</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>80</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>90</v>
       </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
       <c r="I34" t="s">
         <v>11</v>
       </c>
@@ -5814,14 +6008,17 @@
       <c r="K34" t="s">
         <v>11</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M34" s="4" t="s">
+      <c r="N34" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -5834,18 +6031,15 @@
       <c r="D35" t="s">
         <v>228</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>250</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>91</v>
       </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
       <c r="I35" t="s">
         <v>11</v>
       </c>
@@ -5855,14 +6049,17 @@
       <c r="K35" t="s">
         <v>11</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="N35" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5875,18 +6072,15 @@
       <c r="D36" t="s">
         <v>228</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>251</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>80</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>92</v>
       </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
       <c r="I36" t="s">
         <v>11</v>
       </c>
@@ -5896,14 +6090,17 @@
       <c r="K36" t="s">
         <v>11</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M36" s="4" t="s">
+      <c r="N36" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -5916,18 +6113,15 @@
       <c r="D37" t="s">
         <v>228</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>252</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>80</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>93</v>
       </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
       <c r="I37" t="s">
         <v>11</v>
       </c>
@@ -5937,14 +6131,17 @@
       <c r="K37" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M37" s="4" t="s">
+      <c r="N37" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -5957,18 +6154,15 @@
       <c r="D38" t="s">
         <v>228</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>253</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>80</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>94</v>
       </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
       <c r="I38" t="s">
         <v>11</v>
       </c>
@@ -5978,14 +6172,17 @@
       <c r="K38" t="s">
         <v>11</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="N38" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -5998,18 +6195,15 @@
       <c r="D39" t="s">
         <v>228</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>254</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>80</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>95</v>
       </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
       <c r="I39" t="s">
         <v>11</v>
       </c>
@@ -6019,14 +6213,17 @@
       <c r="K39" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M39" s="4" t="s">
+      <c r="N39" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -6039,18 +6236,15 @@
       <c r="D40" t="s">
         <v>228</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>255</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>80</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>96</v>
       </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
       <c r="I40" t="s">
         <v>11</v>
       </c>
@@ -6060,14 +6254,17 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -6080,18 +6277,15 @@
       <c r="D41" t="s">
         <v>228</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>256</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>80</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>97</v>
       </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
       <c r="I41" t="s">
         <v>11</v>
       </c>
@@ -6101,14 +6295,17 @@
       <c r="K41" t="s">
         <v>11</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M41" s="4" t="s">
+      <c r="N41" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>98</v>
       </c>
@@ -6121,18 +6318,15 @@
       <c r="D42" t="s">
         <v>228</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>257</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>80</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>98</v>
       </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
       <c r="I42" t="s">
         <v>11</v>
       </c>
@@ -6142,14 +6336,17 @@
       <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M42" s="4" t="s">
+      <c r="N42" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -6162,18 +6359,15 @@
       <c r="D43" t="s">
         <v>228</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>258</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>80</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>99</v>
       </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
       <c r="I43" t="s">
         <v>11</v>
       </c>
@@ -6183,14 +6377,17 @@
       <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M43" s="4" t="s">
+      <c r="N43" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -6203,18 +6400,15 @@
       <c r="D44" t="s">
         <v>228</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>259</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>80</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>100</v>
       </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
       <c r="I44" t="s">
         <v>11</v>
       </c>
@@ -6224,14 +6418,17 @@
       <c r="K44" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M44" s="4" t="s">
+      <c r="N44" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -6244,18 +6441,15 @@
       <c r="D45" t="s">
         <v>228</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>260</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>80</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>101</v>
       </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
       <c r="I45" t="s">
         <v>11</v>
       </c>
@@ -6265,14 +6459,17 @@
       <c r="K45" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M45" s="4" t="s">
+      <c r="N45" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>102</v>
       </c>
@@ -6286,17 +6483,17 @@
         <v>228</v>
       </c>
       <c r="E46" t="s">
+        <v>467</v>
+      </c>
+      <c r="F46" t="s">
         <v>261</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>80</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>102</v>
       </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
       <c r="I46" t="s">
         <v>11</v>
       </c>
@@ -6306,14 +6503,17 @@
       <c r="K46" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="N46" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>103</v>
       </c>
@@ -6326,18 +6526,15 @@
       <c r="D47" t="s">
         <v>228</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>262</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>80</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>103</v>
       </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
       <c r="I47" t="s">
         <v>11</v>
       </c>
@@ -6347,14 +6544,17 @@
       <c r="K47" t="s">
         <v>11</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="N47" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -6367,18 +6567,15 @@
       <c r="D48" t="s">
         <v>228</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>263</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>80</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>104</v>
       </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
       <c r="I48" t="s">
         <v>11</v>
       </c>
@@ -6388,14 +6585,17 @@
       <c r="K48" t="s">
         <v>11</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="N48" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>105</v>
       </c>
@@ -6408,18 +6608,15 @@
       <c r="D49" t="s">
         <v>228</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>264</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>80</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>105</v>
       </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
       <c r="I49" t="s">
         <v>11</v>
       </c>
@@ -6429,14 +6626,17 @@
       <c r="K49" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="N49" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -6449,18 +6649,15 @@
       <c r="D50" t="s">
         <v>228</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>245</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>80</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>106</v>
       </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
       <c r="I50" t="s">
         <v>11</v>
       </c>
@@ -6470,10 +6667,13 @@
       <c r="K50" t="s">
         <v>11</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M50" s="4" t="s">
+      <c r="N50" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6600,11 +6800,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6707,6 +6907,24 @@
       <c r="M2" s="4" t="s">
         <v>281</v>
       </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6797,14 +7015,21 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -6847,7 +7072,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6928,11 +7186,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7005,6 +7263,23 @@
       </c>
       <c r="E2" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8426,7 +8701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8532,11 +8807,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8606,6 +8881,23 @@
         <v>334</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E3" t="s">
+        <v>479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="490">
   <si>
     <t>Part</t>
   </si>
@@ -1541,6 +1541,15 @@
   </si>
   <si>
     <t>VolReg-LM117</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>2in1</t>
+  </si>
+  <si>
+    <t>DIP-8</t>
   </si>
 </sst>
 </file>
@@ -8697,11 +8706,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8800,6 +8809,32 @@
         <v>346</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" t="s">
+        <v>404</v>
+      </c>
+      <c r="J3" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8809,7 +8844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="781" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="SMPScontrol" sheetId="10" r:id="rId12"/>
     <sheet name="Logic" sheetId="11" r:id="rId13"/>
     <sheet name="Interface" sheetId="12" r:id="rId14"/>
-    <sheet name="Protection" sheetId="13" r:id="rId15"/>
-    <sheet name="Drivers" sheetId="14" r:id="rId16"/>
-    <sheet name="MotorControl" sheetId="15" r:id="rId17"/>
+    <sheet name="MotorControl" sheetId="15" r:id="rId15"/>
+    <sheet name="Protection" sheetId="13" r:id="rId16"/>
+    <sheet name="Drivers" sheetId="14" r:id="rId17"/>
     <sheet name="Magnetics" sheetId="16" r:id="rId18"/>
     <sheet name="LED" sheetId="17" r:id="rId19"/>
     <sheet name="Quartz" sheetId="18" r:id="rId20"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="624">
   <si>
     <t>Part</t>
   </si>
@@ -1551,6 +1551,408 @@
   <si>
     <t>DIP-8</t>
   </si>
+  <si>
+    <t>2П769Е</t>
+  </si>
+  <si>
+    <t>30 А</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>5320ЕВ03</t>
+  </si>
+  <si>
+    <t>VolReg(5320ЕВ03)</t>
+  </si>
+  <si>
+    <t>TO220-5</t>
+  </si>
+  <si>
+    <t>TO220-5-D</t>
+  </si>
+  <si>
+    <t>Импульсный понижающий стабилизатор</t>
+  </si>
+  <si>
+    <t>IL358</t>
+  </si>
+  <si>
+    <t>1886ВЕ2У</t>
+  </si>
+  <si>
+    <t>RUS-IC.PcbLib</t>
+  </si>
+  <si>
+    <t>Н18.64-1В</t>
+  </si>
+  <si>
+    <t>DR127</t>
+  </si>
+  <si>
+    <t>DR127-330-36CG16L</t>
+  </si>
+  <si>
+    <t>33 uH</t>
+  </si>
+  <si>
+    <t>Max DC Current</t>
+  </si>
+  <si>
+    <t>6.22 A</t>
+  </si>
+  <si>
+    <t>-40…125 C</t>
+  </si>
+  <si>
+    <t>2ДШ2124В94</t>
+  </si>
+  <si>
+    <t>Schottky</t>
+  </si>
+  <si>
+    <t>КТ-93</t>
+  </si>
+  <si>
+    <t>Диод Шотки</t>
+  </si>
+  <si>
+    <t>SMCJ36(C)A</t>
+  </si>
+  <si>
+    <t>SMCJ78(C)A</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Suppressor</t>
+  </si>
+  <si>
+    <t>TVS_single</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>FILTERSUHOI</t>
+  </si>
+  <si>
+    <t>14X8X5DOUBLE</t>
+  </si>
+  <si>
+    <t>14X8X5DOUBLER</t>
+  </si>
+  <si>
+    <t>13 Uh</t>
+  </si>
+  <si>
+    <t>MIC4427</t>
+  </si>
+  <si>
+    <t>Low-Side MOSFET Drivers</t>
+  </si>
+  <si>
+    <t>PTVS3V3S1UR</t>
+  </si>
+  <si>
+    <t>SOD123W</t>
+  </si>
+  <si>
+    <t>BF822</t>
+  </si>
+  <si>
+    <t>BJT_NPN_BEC</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>Стабилитроны</t>
+  </si>
+  <si>
+    <t>BZX55-5,1V</t>
+  </si>
+  <si>
+    <t>Zener_single</t>
+  </si>
+  <si>
+    <t>DO-35-10</t>
+  </si>
+  <si>
+    <t>Стабилитрон</t>
+  </si>
+  <si>
+    <t>0,5 W</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>R 1210 ±0,1%</t>
+  </si>
+  <si>
+    <t>R 1210 ±1%</t>
+  </si>
+  <si>
+    <t>R 1210 ±5%</t>
+  </si>
+  <si>
+    <t>PBS-2</t>
+  </si>
+  <si>
+    <t>PBS-3</t>
+  </si>
+  <si>
+    <t>TIP31C</t>
+  </si>
+  <si>
+    <t>BJT_NPN_BCE</t>
+  </si>
+  <si>
+    <t>SUP65P</t>
+  </si>
+  <si>
+    <t>MOSFET_P_GDS</t>
+  </si>
+  <si>
+    <t>SUP75N</t>
+  </si>
+  <si>
+    <t>SMBJ15A-TR</t>
+  </si>
+  <si>
+    <t>Transil</t>
+  </si>
+  <si>
+    <t>PTVS6V0S1UR</t>
+  </si>
+  <si>
+    <t>MMSZ6V8T1G</t>
+  </si>
+  <si>
+    <t>MMSZ39T1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">С2220 X7R </t>
+  </si>
+  <si>
+    <t>C2220</t>
+  </si>
+  <si>
+    <t>С2220 NP0</t>
+  </si>
+  <si>
+    <t>PTVS11VS1UR</t>
+  </si>
+  <si>
+    <t>SMC30J36A/CA</t>
+  </si>
+  <si>
+    <t>VolReg(TRN-1-2410)</t>
+  </si>
+  <si>
+    <t>TRN-1-2410</t>
+  </si>
+  <si>
+    <t>SIP-5(4)</t>
+  </si>
+  <si>
+    <t>SIP.PcbLib</t>
+  </si>
+  <si>
+    <t>Otput voltage</t>
+  </si>
+  <si>
+    <t>Output Current</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>18-36V (24V Nom)</t>
+  </si>
+  <si>
+    <t>3.3V</t>
+  </si>
+  <si>
+    <t>300mA</t>
+  </si>
+  <si>
+    <t>-40...+90C</t>
+  </si>
+  <si>
+    <t>TRN-1-2411</t>
+  </si>
+  <si>
+    <t>5.0V</t>
+  </si>
+  <si>
+    <t>200mA</t>
+  </si>
+  <si>
+    <t>LM1117IMPX-3.3</t>
+  </si>
+  <si>
+    <t>-40…+125C</t>
+  </si>
+  <si>
+    <t>20V max(15V)</t>
+  </si>
+  <si>
+    <t>800mA</t>
+  </si>
+  <si>
+    <t>STM32F303VCT6</t>
+  </si>
+  <si>
+    <t>LQFP-100</t>
+  </si>
+  <si>
+    <t>MAX485</t>
+  </si>
+  <si>
+    <t>MCP2551</t>
+  </si>
+  <si>
+    <t>CAN tranceiver 1 Mbps</t>
+  </si>
+  <si>
+    <t>RS-485 up to 2.5 Mbps</t>
+  </si>
+  <si>
+    <t>REF3325AIDCK</t>
+  </si>
+  <si>
+    <t>Zener_program</t>
+  </si>
+  <si>
+    <t>SC-70</t>
+  </si>
+  <si>
+    <t>Library Path 2</t>
+  </si>
+  <si>
+    <t>Library Ref 2</t>
+  </si>
+  <si>
+    <t>LMV324AIDR</t>
+  </si>
+  <si>
+    <t>OPA170AIDBV</t>
+  </si>
+  <si>
+    <t>1in1U</t>
+  </si>
+  <si>
+    <t>OPA170AIDRL</t>
+  </si>
+  <si>
+    <t>1in1</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>TL494</t>
+  </si>
+  <si>
+    <t>VolReg(TL494)</t>
+  </si>
+  <si>
+    <t>SOIC-16</t>
+  </si>
+  <si>
+    <t>Opto1</t>
+  </si>
+  <si>
+    <t>4N25</t>
+  </si>
+  <si>
+    <t>DIP-6</t>
+  </si>
+  <si>
+    <t>IR4427</t>
+  </si>
+  <si>
+    <t>FOD3180</t>
+  </si>
+  <si>
+    <t>DIP-8W</t>
+  </si>
+  <si>
+    <t>GBK160808T-601Y-N</t>
+  </si>
+  <si>
+    <t>TCK-147</t>
+  </si>
+  <si>
+    <t>TCK-147 TRACO</t>
+  </si>
+  <si>
+    <t>TL431LIAQDBZR</t>
+  </si>
+  <si>
+    <t>STPS340S</t>
+  </si>
+  <si>
+    <t>40 V</t>
+  </si>
+  <si>
+    <t>-40…+150 C</t>
+  </si>
+  <si>
+    <t>0.63 V</t>
+  </si>
+  <si>
+    <t>Диод Шоттки</t>
+  </si>
+  <si>
+    <t>BZX85C4V7</t>
+  </si>
+  <si>
+    <t>D_AX04_DO41</t>
+  </si>
+  <si>
+    <t>BC817-40</t>
+  </si>
+  <si>
+    <t>BC807-40</t>
+  </si>
+  <si>
+    <t>BJT_PNP_BEC</t>
+  </si>
+  <si>
+    <t>STP30NF10</t>
+  </si>
+  <si>
+    <t>MOSFET_N_DUAL</t>
+  </si>
+  <si>
+    <t>FDS9945</t>
+  </si>
+  <si>
+    <t>KX-KT-8.0MHz</t>
+  </si>
+  <si>
+    <t>XTAL</t>
+  </si>
+  <si>
+    <t>HC-49SM</t>
+  </si>
+  <si>
+    <t>КВ-5, N87(RM-5)</t>
+  </si>
+  <si>
+    <t>TRANS1</t>
+  </si>
+  <si>
+    <t>KV5</t>
+  </si>
 </sst>
 </file>
 
@@ -1559,7 +1961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1619,6 +2021,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1628,7 +2052,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1651,12 +2075,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -1666,8 +2106,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1947,11 +2399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2843,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
         <v>160</v>
@@ -2403,19 +2855,19 @@
         <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -2432,7 +2884,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
         <v>160</v>
@@ -2444,19 +2896,19 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
         <v>11</v>
@@ -2473,7 +2925,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>539</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
@@ -2485,19 +2937,19 @@
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
         <v>11</v>
@@ -2514,7 +2966,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>160</v>
@@ -2526,19 +2978,19 @@
         <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
         <v>11</v>
@@ -2555,7 +3007,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>160</v>
@@ -2567,19 +3019,19 @@
         <v>218</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
         <v>11</v>
@@ -2596,7 +3048,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>160</v>
@@ -2608,19 +3060,19 @@
         <v>218</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" t="s">
         <v>11</v>
@@ -2635,15 +3087,91 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I17" s="4"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="4"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>160</v>
@@ -2655,127 +3183,42 @@
         <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F19" t="s">
-        <v>220</v>
-      </c>
-      <c r="G19" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
       </c>
+      <c r="I19" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J19" t="s">
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>14</v>
+      <c r="M19" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" t="s">
-        <v>221</v>
-      </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F21" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="4"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>160</v>
@@ -2787,10 +3230,13 @@
         <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F22" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>221</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -2799,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>11</v>
@@ -2816,7 +3262,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>160</v>
@@ -2828,10 +3274,13 @@
         <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>221</v>
       </c>
       <c r="H23" t="s">
         <v>9</v>
@@ -2840,7 +3289,7 @@
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
         <v>11</v>
@@ -2857,7 +3306,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>160</v>
@@ -2869,10 +3318,13 @@
         <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F24" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="G24" t="s">
+        <v>221</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -2881,7 +3333,7 @@
         <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
         <v>11</v>
@@ -2898,7 +3350,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>160</v>
@@ -2910,7 +3362,10 @@
         <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -2919,7 +3374,7 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
         <v>11</v>
@@ -2936,7 +3391,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>160</v>
@@ -2948,7 +3403,10 @@
         <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -2957,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L26" t="s">
         <v>11</v>
@@ -2974,7 +3432,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>160</v>
@@ -2986,7 +3444,10 @@
         <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>222</v>
+      </c>
+      <c r="F27" t="s">
+        <v>223</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -2995,7 +3456,7 @@
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27" t="s">
         <v>11</v>
@@ -3012,7 +3473,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>160</v>
@@ -3024,7 +3485,7 @@
         <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -3033,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
         <v>11</v>
@@ -3050,7 +3511,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>160</v>
@@ -3062,7 +3523,7 @@
         <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -3071,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L29" t="s">
         <v>11</v>
@@ -3088,7 +3549,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>160</v>
@@ -3100,7 +3561,7 @@
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H30" t="s">
         <v>9</v>
@@ -3109,7 +3570,7 @@
         <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L30" t="s">
         <v>11</v>
@@ -3126,7 +3587,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>160</v>
@@ -3138,10 +3599,7 @@
         <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -3150,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" t="s">
         <v>11</v>
@@ -3167,7 +3625,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>160</v>
@@ -3179,10 +3637,7 @@
         <v>218</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
-      </c>
-      <c r="F32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -3191,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
         <v>11</v>
@@ -3208,7 +3663,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>160</v>
@@ -3220,10 +3675,7 @@
         <v>218</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
-      </c>
-      <c r="F33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>9</v>
@@ -3232,7 +3684,7 @@
         <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" t="s">
         <v>11</v>
@@ -3247,47 +3699,170 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>165</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
         <v>160</v>
       </c>
-      <c r="C38" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>166</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C34" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
         <v>160</v>
       </c>
-      <c r="C39" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" t="s">
+        <v>226</v>
+      </c>
+      <c r="F35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
         <v>160</v>
       </c>
-      <c r="C40" t="s">
-        <v>171</v>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B41" t="s">
         <v>160</v>
       </c>
       <c r="C41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3299,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,7 +3926,7 @@
         <v>292</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>18</v>
@@ -3396,33 +3971,62 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>571</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
       </c>
       <c r="C4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" t="s">
+        <v>411</v>
+      </c>
+      <c r="H4" t="s">
+        <v>573</v>
+      </c>
+      <c r="I4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J4" t="s">
+        <v>574</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" t="s">
         <v>433</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>434</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>438</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J5" t="s">
         <v>439</v>
       </c>
     </row>
@@ -3437,7 +4041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3547,6 +4151,9 @@
       <c r="G3" t="s">
         <v>416</v>
       </c>
+      <c r="H3" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3566,6 +4173,9 @@
       </c>
       <c r="F4" t="s">
         <v>386</v>
+      </c>
+      <c r="H4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4208,11 +4818,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4221,9 +4831,11 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4240,31 +4852,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>483</v>
       </c>
@@ -4279,6 +4894,54 @@
       </c>
       <c r="E2" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I6" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -4377,11 +5040,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4390,10 +5053,13 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4407,34 +5073,40 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>473</v>
       </c>
@@ -4447,11 +5119,11 @@
       <c r="D2" t="s">
         <v>475</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>476</v>
       </c>
@@ -4464,8 +5136,60 @@
       <c r="D3" t="s">
         <v>341</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" t="s">
+        <v>577</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" t="s">
+        <v>489</v>
+      </c>
+      <c r="G4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" t="s">
+        <v>404</v>
+      </c>
+      <c r="H5" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -4479,200 +5203,6 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H2" t="s">
-        <v>350</v>
-      </c>
-      <c r="J2" t="s">
-        <v>351</v>
-      </c>
-      <c r="K2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J8" t="s">
-        <v>351</v>
-      </c>
-      <c r="K8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -4747,13 +5277,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" t="s">
+        <v>489</v>
+      </c>
+      <c r="H4" t="s">
+        <v>404</v>
+      </c>
+      <c r="J4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>599</v>
+      </c>
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" t="s">
+        <v>351</v>
+      </c>
+      <c r="K9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,11 +5558,14 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4784,25 +5582,37 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -4818,17 +5628,72 @@
       <c r="E2" t="s">
         <v>325</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>326</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>330</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G3" t="s">
+        <v>326</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" t="s">
+        <v>521</v>
+      </c>
+      <c r="I5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>460</v>
       </c>
@@ -4844,18 +5709,70 @@
       <c r="E7" t="s">
         <v>462</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>463</v>
-      </c>
-      <c r="H7" t="s">
-        <v>464</v>
       </c>
       <c r="I7" t="s">
         <v>464</v>
       </c>
+      <c r="J7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>621</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>622</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" t="s">
+        <v>623</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4919,11 +5836,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,50 +6110,50 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8" t="s">
         <v>162</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C8" t="s">
         <v>163</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D8" t="s">
         <v>228</v>
       </c>
-      <c r="F9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F8" t="s">
+        <v>553</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="H8" t="s">
+        <v>553</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>162</v>
@@ -5248,13 +6165,13 @@
         <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
         <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -5277,7 +6194,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>162</v>
@@ -5289,13 +6206,13 @@
         <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
         <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -5318,7 +6235,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>162</v>
@@ -5330,13 +6247,13 @@
         <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
         <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -5359,7 +6276,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
         <v>162</v>
@@ -5371,13 +6288,13 @@
         <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -5399,99 +6316,99 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M14" s="1"/>
-      <c r="N14" s="4"/>
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" t="s">
+        <v>553</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>553</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" t="s">
-        <v>235</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>162</v>
@@ -5503,13 +6420,13 @@
         <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G19" t="s">
         <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -5532,7 +6449,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>162</v>
@@ -5544,13 +6461,13 @@
         <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G20" t="s">
         <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -5573,7 +6490,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
         <v>162</v>
@@ -5585,13 +6502,13 @@
         <v>228</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s">
         <v>79</v>
       </c>
       <c r="H21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
         <v>11</v>
@@ -5612,96 +6529,96 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
         <v>162</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C22" t="s">
         <v>164</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D22" t="s">
         <v>228</v>
       </c>
-      <c r="F25" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" t="s">
-        <v>11</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="4" t="s">
+      <c r="N22" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s">
         <v>162</v>
@@ -5713,13 +6630,13 @@
         <v>228</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
         <v>80</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -5742,7 +6659,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
         <v>162</v>
@@ -5754,13 +6671,13 @@
         <v>228</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
         <v>80</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -5783,7 +6700,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
         <v>162</v>
@@ -5795,13 +6712,13 @@
         <v>228</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G29" t="s">
         <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -5824,7 +6741,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>162</v>
@@ -5836,13 +6753,13 @@
         <v>228</v>
       </c>
       <c r="F30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G30" t="s">
         <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -5865,7 +6782,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
         <v>162</v>
@@ -5877,13 +6794,13 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
         <v>80</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -5906,7 +6823,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
         <v>162</v>
@@ -5918,13 +6835,13 @@
         <v>228</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
         <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -5947,7 +6864,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
         <v>162</v>
@@ -5959,13 +6876,13 @@
         <v>228</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G33" t="s">
         <v>80</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -5988,7 +6905,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
         <v>162</v>
@@ -6000,13 +6917,13 @@
         <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G34" t="s">
         <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -6029,7 +6946,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>162</v>
@@ -6041,13 +6958,13 @@
         <v>228</v>
       </c>
       <c r="F35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
         <v>80</v>
       </c>
       <c r="H35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -6070,7 +6987,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>162</v>
@@ -6082,13 +6999,13 @@
         <v>228</v>
       </c>
       <c r="F36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
         <v>80</v>
       </c>
       <c r="H36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -6111,7 +7028,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
         <v>162</v>
@@ -6123,13 +7040,13 @@
         <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G37" t="s">
         <v>80</v>
       </c>
       <c r="H37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s">
         <v>11</v>
@@ -6152,7 +7069,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
         <v>162</v>
@@ -6164,13 +7081,13 @@
         <v>228</v>
       </c>
       <c r="F38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -6193,7 +7110,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>162</v>
@@ -6205,13 +7122,13 @@
         <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" t="s">
         <v>80</v>
       </c>
       <c r="H39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -6234,7 +7151,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
         <v>162</v>
@@ -6246,13 +7163,13 @@
         <v>228</v>
       </c>
       <c r="F40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -6275,7 +7192,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>162</v>
@@ -6287,13 +7204,13 @@
         <v>228</v>
       </c>
       <c r="F41" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -6316,7 +7233,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>162</v>
@@ -6328,13 +7245,13 @@
         <v>228</v>
       </c>
       <c r="F42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
         <v>80</v>
       </c>
       <c r="H42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -6357,7 +7274,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B43" t="s">
         <v>162</v>
@@ -6369,13 +7286,13 @@
         <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G43" t="s">
         <v>80</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -6398,7 +7315,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B44" t="s">
         <v>162</v>
@@ -6410,13 +7327,13 @@
         <v>228</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G44" t="s">
         <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44" t="s">
         <v>11</v>
@@ -6439,7 +7356,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>162</v>
@@ -6451,13 +7368,13 @@
         <v>228</v>
       </c>
       <c r="F45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
         <v>80</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>
@@ -6480,7 +7397,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
         <v>162</v>
@@ -6491,17 +7408,14 @@
       <c r="D46" t="s">
         <v>228</v>
       </c>
-      <c r="E46" t="s">
-        <v>467</v>
-      </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G46" t="s">
         <v>80</v>
       </c>
       <c r="H46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I46" t="s">
         <v>11</v>
@@ -6524,7 +7438,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
         <v>162</v>
@@ -6536,13 +7450,13 @@
         <v>228</v>
       </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I47" t="s">
         <v>11</v>
@@ -6565,7 +7479,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" t="s">
         <v>162</v>
@@ -6576,14 +7490,17 @@
       <c r="D48" t="s">
         <v>228</v>
       </c>
+      <c r="E48" t="s">
+        <v>467</v>
+      </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G48" t="s">
         <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I48" t="s">
         <v>11</v>
@@ -6606,7 +7523,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s">
         <v>162</v>
@@ -6618,13 +7535,13 @@
         <v>228</v>
       </c>
       <c r="F49" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G49" t="s">
         <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -6647,7 +7564,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>162</v>
@@ -6659,13 +7576,13 @@
         <v>228</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="G50" t="s">
         <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I50" t="s">
         <v>11</v>
@@ -6683,6 +7600,88 @@
         <v>115</v>
       </c>
       <c r="N50" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" t="s">
+        <v>264</v>
+      </c>
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" t="s">
+        <v>105</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6697,10 +7696,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
@@ -6743,7 +7749,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6943,11 +7965,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,6 +8039,23 @@
         <v>404</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3" t="s">
+        <v>595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7024,11 +8063,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7038,9 +8077,16 @@
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7066,22 +8112,28 @@
         <v>12</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>6</v>
+        <v>435</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>7</v>
+        <v>561</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>8</v>
+        <v>562</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>468</v>
       </c>
@@ -7098,7 +8150,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>472</v>
       </c>
@@ -7113,6 +8165,76 @@
       </c>
       <c r="E3" t="s">
         <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D5" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" t="s">
+        <v>559</v>
+      </c>
+      <c r="I5" t="s">
+        <v>564</v>
+      </c>
+      <c r="J5" t="s">
+        <v>565</v>
+      </c>
+      <c r="K5" t="s">
+        <v>566</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" t="s">
+        <v>559</v>
+      </c>
+      <c r="I6" t="s">
+        <v>564</v>
+      </c>
+      <c r="J6" t="s">
+        <v>569</v>
+      </c>
+      <c r="K6" t="s">
+        <v>570</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.81</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7124,7 +8246,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -7298,19 +8422,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7318,68 +8448,121 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>414</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>410</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" t="s">
         <v>415</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7391,15 +8574,15 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.7109375" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7428,31 +8611,34 @@
         <v>19</v>
       </c>
       <c r="J1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>282</v>
       </c>
@@ -7480,29 +8666,30 @@
       <c r="I2" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7521,8 +8708,9 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>353</v>
       </c>
@@ -7547,26 +8735,27 @@
         <v>356</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>357</v>
       </c>
@@ -7591,26 +8780,27 @@
         <v>358</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -7629,13 +8819,24 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -7649,13 +8850,24 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="S7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -7669,13 +8881,10 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>426</v>
-      </c>
+      <c r="S8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -7691,63 +8900,555 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>442</v>
+      <c r="S9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>556</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>513</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" t="s">
+        <v>518</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>549</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>555</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L24" t="s">
         <v>453</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M24" t="s">
         <v>450</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O24" t="s">
         <v>452</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P24" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>443</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D25" t="s">
         <v>444</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E25" t="s">
         <v>445</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H25" t="s">
         <v>446</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I25" t="s">
         <v>447</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L25" t="s">
         <v>448</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M25" t="s">
         <v>450</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O25" t="s">
         <v>451</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P25" t="s">
         <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E27" t="s">
+        <v>511</v>
+      </c>
+      <c r="H27" t="s">
+        <v>512</v>
+      </c>
+      <c r="I27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>531</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" t="s">
+        <v>532</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" t="s">
+        <v>533</v>
+      </c>
+      <c r="H32" t="s">
+        <v>534</v>
+      </c>
+      <c r="I32" t="s">
+        <v>533</v>
+      </c>
+      <c r="J32" t="s">
+        <v>535</v>
+      </c>
+      <c r="O32">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>610</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
+        <v>532</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -7758,11 +9459,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7778,13 +9479,14 @@
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -7825,25 +9527,28 @@
         <v>311</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>301</v>
       </c>
@@ -7883,19 +9588,19 @@
       <c r="M2" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -7916,8 +9621,9 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>418</v>
       </c>
@@ -7957,16 +9663,16 @@
       <c r="M3" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -7988,18 +9694,35 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
       <c r="AL3" s="4"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -8028,18 +9751,39 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
       <c r="AL4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -8068,18 +9812,39 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
@@ -8108,20 +9873,39 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+        <v>546</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -8150,10 +9934,11 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>425</v>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>615</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>302</v>
@@ -8182,20 +9967,12 @@
       <c r="J8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -8218,8 +9995,9 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="4"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -8258,13 +10036,24 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -8298,13 +10087,24 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="4"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -8338,8 +10138,9 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -8378,13 +10179,24 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E13" t="s">
+        <v>404</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -8418,8 +10230,9 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -8458,8 +10271,9 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -8498,9 +10312,12 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>426</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -8538,25 +10355,54 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="Q17" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -8578,25 +10424,54 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="Q18" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -8618,8 +10493,9 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -8658,8 +10534,9 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -8698,6 +10575,376 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8706,19 +10953,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.28515625" customWidth="1"/>
+    <col min="5" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1"/>
@@ -8835,6 +11083,92 @@
         <v>346</v>
       </c>
     </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" t="s">
+        <v>591</v>
+      </c>
+      <c r="J5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>591</v>
+      </c>
+      <c r="J6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" t="s">
+        <v>488</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H7" t="s">
+        <v>404</v>
+      </c>
+      <c r="J7" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8842,11 +11176,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8933,6 +11267,45 @@
         <v>479</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
+        <v>480</v>
+      </c>
+      <c r="E4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E8" t="s">
+        <v>502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -5546,7 +5546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
@@ -10955,9 +10955,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11096,7 +11096,7 @@
       <c r="D4" t="s">
         <v>341</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>344</v>
       </c>
       <c r="J4" t="s">

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="648">
   <si>
     <t>Part</t>
   </si>
@@ -1952,6 +1952,78 @@
   </si>
   <si>
     <t>KV5</t>
+  </si>
+  <si>
+    <t>PLD-16</t>
+  </si>
+  <si>
+    <t>1in1R</t>
+  </si>
+  <si>
+    <t>LM397</t>
+  </si>
+  <si>
+    <t>Компаратор</t>
+  </si>
+  <si>
+    <t>RLB0914-151KL</t>
+  </si>
+  <si>
+    <t>D9_H13_S5</t>
+  </si>
+  <si>
+    <t>150 мкГн</t>
+  </si>
+  <si>
+    <t>Sat. Cur.</t>
+  </si>
+  <si>
+    <t>1,8 А</t>
+  </si>
+  <si>
+    <t>1 А</t>
+  </si>
+  <si>
+    <t>https://www.elitan.ru/price/item1624281</t>
+  </si>
+  <si>
+    <t>INA138</t>
+  </si>
+  <si>
+    <t>INA1x8</t>
+  </si>
+  <si>
+    <t>High-Side Measurement Current Shunt Monitor</t>
+  </si>
+  <si>
+    <t>–40°C to +125°C</t>
+  </si>
+  <si>
+    <t>INA168</t>
+  </si>
+  <si>
+    <t>2,7 V - 36 V</t>
+  </si>
+  <si>
+    <t>2,7 V - 60 V</t>
+  </si>
+  <si>
+    <t>±2.5%</t>
+  </si>
+  <si>
+    <t>MCP1799T-5002H</t>
+  </si>
+  <si>
+    <t>VolReg-IGO</t>
+  </si>
+  <si>
+    <t>4,5 … 45 V</t>
+  </si>
+  <si>
+    <t>80 mA</t>
+  </si>
+  <si>
+    <t>-40…+150C</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2168,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2117,6 +2189,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3874,11 +3947,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,6 +4103,35 @@
         <v>439</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>644</v>
+      </c>
+      <c r="D7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" t="s">
+        <v>411</v>
+      </c>
+      <c r="H7" t="s">
+        <v>645</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4041,7 +4143,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,7 +4511,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4425,8 +4527,11 @@
       <c r="E17" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -4440,7 +4545,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -4454,7 +4559,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -4468,7 +4573,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -4485,7 +4590,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -4499,7 +4604,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -4513,7 +4618,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -4527,7 +4632,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -4541,7 +4646,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -4555,7 +4660,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -4569,7 +4674,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -4583,7 +4688,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -4597,7 +4702,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -4611,7 +4716,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -4625,7 +4730,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -4822,7 +4927,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4894,6 +4999,9 @@
       </c>
       <c r="E2" t="s">
         <v>485</v>
+      </c>
+      <c r="F2" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -5544,11 +5652,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5561,11 +5669,12 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5597,22 +5706,25 @@
         <v>328</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>322</v>
       </c>
@@ -5638,7 +5750,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>504</v>
       </c>
@@ -5660,17 +5772,17 @@
       <c r="I3" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>519</v>
       </c>
@@ -5693,7 +5805,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>460</v>
       </c>
@@ -5719,7 +5831,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>601</v>
       </c>
@@ -5736,7 +5848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>603</v>
       </c>
@@ -5753,26 +5865,58 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" t="s">
+        <v>629</v>
+      </c>
+      <c r="I14" t="s">
+        <v>630</v>
+      </c>
+      <c r="K14" t="s">
+        <v>632</v>
+      </c>
+      <c r="L14" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>621</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>321</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>622</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>324</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>623</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7696,7 +7840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7831,11 +7975,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,7 +7988,7 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
@@ -7956,6 +8100,61 @@
         <v>479</v>
       </c>
       <c r="F4" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" t="s">
+        <v>637</v>
+      </c>
+      <c r="H6" t="s">
+        <v>642</v>
+      </c>
+      <c r="L6" t="s">
+        <v>640</v>
+      </c>
+      <c r="M6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
+        <v>636</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" t="s">
+        <v>637</v>
+      </c>
+      <c r="H7" t="s">
+        <v>642</v>
+      </c>
+      <c r="L7" t="s">
+        <v>641</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8561,8 +8760,8 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9463,7 +9662,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10953,11 +11152,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11167,6 +11366,26 @@
       </c>
       <c r="J7" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" t="s">
+        <v>591</v>
+      </c>
+      <c r="J10" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="675">
   <si>
     <t>Part</t>
   </si>
@@ -2025,6 +2025,87 @@
   <si>
     <t>-40…+150C</t>
   </si>
+  <si>
+    <t>Сферический транзистор в вакууме</t>
+  </si>
+  <si>
+    <t>TO-UNI</t>
+  </si>
+  <si>
+    <t>IR2101</t>
+  </si>
+  <si>
+    <t>DIP-9</t>
+  </si>
+  <si>
+    <t>SOIC-9</t>
+  </si>
+  <si>
+    <t>HER108</t>
+  </si>
+  <si>
+    <t>1 A</t>
+  </si>
+  <si>
+    <t>75  ns</t>
+  </si>
+  <si>
+    <t>MURS160</t>
+  </si>
+  <si>
+    <t>49 ns</t>
+  </si>
+  <si>
+    <t>LTS-UNI</t>
+  </si>
+  <si>
+    <t>LTS</t>
+  </si>
+  <si>
+    <t>LTS 25-NPF</t>
+  </si>
+  <si>
+    <t>VolReg(LMR16006)</t>
+  </si>
+  <si>
+    <t>LMR16006</t>
+  </si>
+  <si>
+    <t>SOT23-6</t>
+  </si>
+  <si>
+    <t>SDR0604-220YL</t>
+  </si>
+  <si>
+    <t>SDR0604</t>
+  </si>
+  <si>
+    <t>MBRA340T3G</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>MCP1799T-3302H</t>
+  </si>
+  <si>
+    <t>3,3 V</t>
+  </si>
+  <si>
+    <t>PTVS15VS1UR</t>
+  </si>
+  <si>
+    <t>BananaPlugs_Black</t>
+  </si>
+  <si>
+    <t>BANANAPLUGS_RED</t>
+  </si>
+  <si>
+    <t>IRFP4110PbF</t>
+  </si>
+  <si>
+    <t>Power Mosfet</t>
+  </si>
 </sst>
 </file>
 
@@ -2033,7 +2114,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2115,6 +2196,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2168,7 +2258,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2190,6 +2280,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3947,11 +4038,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,6 +4223,35 @@
         <v>647</v>
       </c>
     </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" t="s">
+        <v>411</v>
+      </c>
+      <c r="H8" t="s">
+        <v>645</v>
+      </c>
+      <c r="I8" t="s">
+        <v>669</v>
+      </c>
+      <c r="J8" t="s">
+        <v>646</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4143,7 +4263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,6 +4350,12 @@
       <c r="D2" t="s">
         <v>366</v>
       </c>
+      <c r="E2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4276,7 +4402,7 @@
       <c r="F4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
         <v>541</v>
       </c>
     </row>
@@ -4918,16 +5044,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5021,39 +5148,57 @@
         <v>594</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>494</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>409</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>495</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>285</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>496</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F11" t="s">
         <v>497</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I11" t="s">
         <v>498</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5445,11 +5590,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5600,48 +5745,77 @@
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>599</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>348</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>599</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>340</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>440</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>348</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>440</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>333</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>441</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>351</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5652,11 +5826,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5894,20 +6068,38 @@
         <v>634</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>621</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>321</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>622</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>324</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>623</v>
       </c>
     </row>
@@ -7975,11 +8167,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8083,76 +8275,99 @@
         <v>281</v>
       </c>
     </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="7"/>
+      <c r="M3" s="4"/>
+    </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>481</v>
+        <v>658</v>
       </c>
       <c r="B4" t="s">
         <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>481</v>
+        <v>659</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>660</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
         <v>266</v>
       </c>
       <c r="C6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" t="s">
+        <v>479</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
         <v>636</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F8" t="s">
         <v>637</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H8" t="s">
         <v>642</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L8" t="s">
         <v>640</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M8" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>639</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>636</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F9" t="s">
         <v>637</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>642</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L9" t="s">
         <v>641</v>
       </c>
     </row>
@@ -8757,11 +8972,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8911,7 +9126,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>353</v>
+        <v>656</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>284</v>
@@ -8936,10 +9151,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>359</v>
+        <v>654</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>361</v>
+        <v>657</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>364</v>
@@ -8947,16 +9162,14 @@
       <c r="O4" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>363</v>
-      </c>
+      <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>284</v>
@@ -8968,7 +9181,7 @@
         <v>355</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -8976,12 +9189,12 @@
         <v>289</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>361</v>
@@ -8993,49 +9206,63 @@
         <v>314</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="L6" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>550</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -9052,29 +9279,35 @@
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>551</v>
+      <c r="A8" s="4" t="s">
+        <v>653</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C8" t="s">
-        <v>532</v>
+      <c r="C8" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>655</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -9083,7 +9316,9 @@
       <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -9102,54 +9337,52 @@
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>605</v>
+      <c r="A10" t="s">
+        <v>550</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>510</v>
+      <c r="C10" t="s">
+        <v>532</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>358</v>
+        <v>526</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4" t="s">
-        <v>360</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>608</v>
-      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -9167,28 +9400,24 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>666</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>517</v>
+      <c r="C12" t="s">
+        <v>532</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>358</v>
+        <v>667</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -9201,51 +9430,33 @@
       <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>358</v>
-      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" t="s">
-        <v>518</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>514</v>
+      <c r="A14" s="4" t="s">
+        <v>605</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>355</v>
@@ -9256,25 +9467,32 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>358</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="15" t="s">
+        <v>607</v>
+      </c>
       <c r="O14" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="P14" s="4"/>
+        <v>606</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -9295,14 +9513,29 @@
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -9316,7 +9549,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>284</v>
@@ -9328,71 +9561,75 @@
         <v>355</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>548</v>
+        <v>516</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>526</v>
+        <v>358</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="O17" t="s">
+        <v>518</v>
+      </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="A18" t="s">
+        <v>514</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>515</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
@@ -9405,29 +9642,14 @@
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>549</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>526</v>
-      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -9441,7 +9663,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>284</v>
@@ -9453,12 +9675,12 @@
         <v>355</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>526</v>
+        <v>356</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>526</v>
@@ -9475,7 +9697,6 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -9496,17 +9717,29 @@
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="A23" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -9520,133 +9753,282 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="L24" t="s">
-        <v>453</v>
-      </c>
-      <c r="M24" t="s">
-        <v>450</v>
-      </c>
-      <c r="O24" t="s">
-        <v>452</v>
-      </c>
-      <c r="P24" t="s">
-        <v>454</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>443</v>
+        <v>555</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>670</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>442</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D25" t="s">
+      <c r="L29" t="s">
+        <v>453</v>
+      </c>
+      <c r="M29" t="s">
+        <v>450</v>
+      </c>
+      <c r="O29" t="s">
+        <v>452</v>
+      </c>
+      <c r="P29" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D30" t="s">
         <v>444</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E30" t="s">
         <v>445</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H30" t="s">
         <v>446</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I30" t="s">
         <v>447</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L30" t="s">
         <v>448</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M30" t="s">
         <v>450</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O30" t="s">
         <v>451</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P30" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C27" t="s">
-        <v>510</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="E27" t="s">
-        <v>511</v>
-      </c>
-      <c r="H27" t="s">
-        <v>512</v>
-      </c>
-      <c r="I27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="E32" t="s">
+        <v>511</v>
+      </c>
+      <c r="H32" t="s">
+        <v>512</v>
+      </c>
+      <c r="I32" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>531</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" t="s">
         <v>532</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E37" t="s">
         <v>533</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H37" t="s">
         <v>534</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I37" t="s">
         <v>533</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J37" t="s">
         <v>535</v>
       </c>
-      <c r="O32">
+      <c r="O37">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>610</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C39" t="s">
         <v>532</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E39" t="s">
         <v>611</v>
       </c>
     </row>
@@ -9658,11 +10040,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AM30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10:E10"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9824,7 +10206,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>418</v>
+        <v>673</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>302</v>
@@ -9836,42 +10218,30 @@
         <v>285</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>419</v>
+        <v>674</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>422</v>
-      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>428</v>
-      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -9897,38 +10267,54 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>527</v>
+        <v>418</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>410</v>
+        <v>285</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+        <v>286</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>307</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>422</v>
+      </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -9954,26 +10340,22 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>285</v>
+        <v>410</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>288</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>307</v>
       </c>
@@ -10015,13 +10397,13 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>285</v>
@@ -10039,7 +10421,7 @@
         <v>307</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>419</v>
+        <v>529</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>290</v>
@@ -10076,13 +10458,13 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>417</v>
+        <v>545</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>285</v>
@@ -10136,8 +10518,8 @@
       <c r="AM7" s="4"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>615</v>
+      <c r="A8" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>302</v>
@@ -10197,16 +10579,36 @@
       <c r="AM8" s="4"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="A9" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10238,21 +10640,11 @@
       <c r="AM9" s="4"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -10290,13 +10682,13 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>614</v>
+        <v>528</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>410</v>
@@ -10340,11 +10732,21 @@
       <c r="AM11" s="4"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -10381,21 +10783,11 @@
       <c r="AM12" s="4"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" t="s">
-        <v>404</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -10432,11 +10824,21 @@
       <c r="AM13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" t="s">
+        <v>404</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -10514,9 +10916,7 @@
       <c r="AM15" s="4"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>426</v>
-      </c>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -10558,50 +10958,24 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>429</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-      <c r="Q17" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -10627,7 +11001,7 @@
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>302</v>
@@ -10657,19 +11031,19 @@
         <v>290</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
@@ -10695,23 +11069,51 @@
       <c r="AM18" s="4"/>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>491</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>493</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -10818,11 +11220,21 @@
       <c r="AM21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -11145,6 +11557,47 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
     </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11156,7 +11609,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="718">
   <si>
     <t>Part</t>
   </si>
@@ -1384,24 +1384,12 @@
     <t>VolRegRus</t>
   </si>
   <si>
-    <t>Стабилизаторы напряжения</t>
-  </si>
-  <si>
     <t>Input voltage</t>
   </si>
   <si>
     <t>Output voltage</t>
   </si>
   <si>
-    <t>12 V</t>
-  </si>
-  <si>
-    <t>35 V</t>
-  </si>
-  <si>
-    <t>1,5 A</t>
-  </si>
-  <si>
     <t>1308ЕУ3БУ</t>
   </si>
   <si>
@@ -1798,15 +1786,6 @@
     <t>LM1117IMPX-3.3</t>
   </si>
   <si>
-    <t>-40…+125C</t>
-  </si>
-  <si>
-    <t>20V max(15V)</t>
-  </si>
-  <si>
-    <t>800mA</t>
-  </si>
-  <si>
     <t>STM32F303VCT6</t>
   </si>
   <si>
@@ -2017,15 +1996,6 @@
     <t>VolReg-IGO</t>
   </si>
   <si>
-    <t>4,5 … 45 V</t>
-  </si>
-  <si>
-    <t>80 mA</t>
-  </si>
-  <si>
-    <t>-40…+150C</t>
-  </si>
-  <si>
     <t>Сферический транзистор в вакууме</t>
   </si>
   <si>
@@ -2089,9 +2059,6 @@
     <t>MCP1799T-3302H</t>
   </si>
   <si>
-    <t>3,3 V</t>
-  </si>
-  <si>
     <t>PTVS15VS1UR</t>
   </si>
   <si>
@@ -2105,6 +2072,168 @@
   </si>
   <si>
     <t>Power Mosfet</t>
+  </si>
+  <si>
+    <t>6N137A</t>
+  </si>
+  <si>
+    <t>THN-15-2413</t>
+  </si>
+  <si>
+    <t>VolReg(THN-15)</t>
+  </si>
+  <si>
+    <t>THN-15</t>
+  </si>
+  <si>
+    <t>TCK-50 TRACO</t>
+  </si>
+  <si>
+    <t>TCK-50</t>
+  </si>
+  <si>
+    <t>HEXINVERTER</t>
+  </si>
+  <si>
+    <t>Logic.SchLib</t>
+  </si>
+  <si>
+    <t>CAS 50-NP</t>
+  </si>
+  <si>
+    <t>HASS 400-S</t>
+  </si>
+  <si>
+    <t>CurSen_1</t>
+  </si>
+  <si>
+    <t>HASS 400-5</t>
+  </si>
+  <si>
+    <t>107DCB450K4R</t>
+  </si>
+  <si>
+    <t>FILM_57.5X35X50</t>
+  </si>
+  <si>
+    <t>FILM_57.5X38X57</t>
+  </si>
+  <si>
+    <t>127DCB450K4R</t>
+  </si>
+  <si>
+    <t>100 мкФ</t>
+  </si>
+  <si>
+    <t>125 мкФ</t>
+  </si>
+  <si>
+    <t>450 В</t>
+  </si>
+  <si>
+    <t>PM8841</t>
+  </si>
+  <si>
+    <t>Low-Side</t>
+  </si>
+  <si>
+    <t>IRLML0100TRPbF</t>
+  </si>
+  <si>
+    <t>MOSFET_N_GSD</t>
+  </si>
+  <si>
+    <t>74HC04D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74HC2G04GW </t>
+  </si>
+  <si>
+    <t>DUALINVERTER</t>
+  </si>
+  <si>
+    <t>SOT363</t>
+  </si>
+  <si>
+    <t>PLS-3R</t>
+  </si>
+  <si>
+    <t>LMR_BOARD</t>
+  </si>
+  <si>
+    <t>3.3V - 5V</t>
+  </si>
+  <si>
+    <t>600mA</t>
+  </si>
+  <si>
+    <t>VolReg-OGI</t>
+  </si>
+  <si>
+    <t>LMR16006_BOARD_1</t>
+  </si>
+  <si>
+    <t>LMR16006_BOARD_2</t>
+  </si>
+  <si>
+    <t>LMR16006_BOARD_3</t>
+  </si>
+  <si>
+    <t>4-60V</t>
+  </si>
+  <si>
+    <t>-55...+165C</t>
+  </si>
+  <si>
+    <t>TIE</t>
+  </si>
+  <si>
+    <t>XTL_3_3213</t>
+  </si>
+  <si>
+    <t>Quartz.PcbLib</t>
+  </si>
+  <si>
+    <t>CSTNE8M00G52A000R0</t>
+  </si>
+  <si>
+    <t>XTAL_1</t>
+  </si>
+  <si>
+    <t>PLS-2R</t>
+  </si>
+  <si>
+    <t>MCP6001</t>
+  </si>
+  <si>
+    <t>MCP6001R</t>
+  </si>
+  <si>
+    <t>MCP6001U</t>
+  </si>
+  <si>
+    <t>1in1U_1</t>
+  </si>
+  <si>
+    <t>LD1117AS33TR</t>
+  </si>
+  <si>
+    <t>A1225LLTTR</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>SOT89</t>
+  </si>
+  <si>
+    <t>1310НМ025</t>
+  </si>
+  <si>
+    <t>5153.64-1</t>
+  </si>
+  <si>
+    <t>MCP6564</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2387,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2281,6 +2410,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -3007,7 +3139,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
         <v>160</v>
@@ -3019,13 +3151,13 @@
         <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -3048,7 +3180,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
         <v>160</v>
@@ -3060,13 +3192,13 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -3089,7 +3221,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
@@ -3101,13 +3233,13 @@
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -4038,11 +4170,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,10 +4213,10 @@
         <v>19</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>292</v>
@@ -4101,13 +4233,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D2" t="s">
         <v>410</v>
@@ -4135,7 +4267,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
@@ -4149,18 +4281,7 @@
       <c r="E4" t="s">
         <v>411</v>
       </c>
-      <c r="H4" t="s">
-        <v>573</v>
-      </c>
-      <c r="I4" t="s">
-        <v>565</v>
-      </c>
-      <c r="J4" t="s">
-        <v>574</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>572</v>
-      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4178,31 +4299,18 @@
       <c r="E5" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="F5" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H5" t="s">
-        <v>438</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="J5" t="s">
-        <v>439</v>
-      </c>
+      <c r="G5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B7" t="s">
         <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D7" t="s">
         <v>410</v>
@@ -4210,28 +4318,17 @@
       <c r="E7" t="s">
         <v>411</v>
       </c>
-      <c r="H7" t="s">
-        <v>645</v>
-      </c>
-      <c r="I7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J7" t="s">
-        <v>646</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>647</v>
-      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B8" t="s">
         <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D8" t="s">
         <v>410</v>
@@ -4239,17 +4336,23 @@
       <c r="E8" t="s">
         <v>411</v>
       </c>
-      <c r="H8" t="s">
-        <v>645</v>
-      </c>
-      <c r="I8" t="s">
-        <v>669</v>
-      </c>
-      <c r="J8" t="s">
-        <v>646</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>647</v>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E11" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4259,11 +4362,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4351,10 +4454,10 @@
         <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="F2" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4380,7 +4483,10 @@
         <v>416</v>
       </c>
       <c r="H3" t="s">
-        <v>540</v>
+        <v>706</v>
+      </c>
+      <c r="I3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4403,7 +4509,10 @@
         <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>541</v>
+        <v>537</v>
+      </c>
+      <c r="H4" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4654,7 +4763,7 @@
         <v>377</v>
       </c>
       <c r="F17" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5040,6 +5149,23 @@
       </c>
       <c r="E47" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>701</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>701</v>
+      </c>
+      <c r="D49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5113,56 +5239,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D2" t="s">
         <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B3" t="s">
         <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D4" t="s">
         <v>410</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5172,28 +5298,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s">
         <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D11" t="s">
         <v>285</v>
       </c>
       <c r="E11" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F11" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>290</v>
       </c>
       <c r="I11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5204,11 +5330,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,10 +5342,13 @@
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5233,57 +5362,102 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>688</v>
+      </c>
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>689</v>
+      </c>
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>332</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D6" t="s">
         <v>333</v>
       </c>
-      <c r="E6" t="s">
-        <v>457</v>
-      </c>
-      <c r="H6" t="s">
-        <v>456</v>
+      <c r="F6" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5293,11 +5467,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5361,30 +5535,30 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F2" t="s">
         <v>473</v>
-      </c>
-      <c r="B2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C2" t="s">
-        <v>473</v>
-      </c>
-      <c r="D2" t="s">
-        <v>475</v>
-      </c>
-      <c r="F2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
@@ -5395,13 +5569,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B4" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C4" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D4" t="s">
         <v>340</v>
@@ -5410,24 +5584,24 @@
         <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
         <v>404</v>
       </c>
       <c r="H4" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C5" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D5" t="s">
         <v>340</v>
@@ -5436,13 +5610,30 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
         <v>404</v>
       </c>
       <c r="H5" t="s">
-        <v>579</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>715</v>
+      </c>
+      <c r="D7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5510,19 +5701,19 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D2" t="s">
         <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -5590,11 +5781,11 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5695,13 +5886,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s">
         <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D3" t="s">
         <v>340</v>
@@ -5710,7 +5901,7 @@
         <v>341</v>
       </c>
       <c r="G3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H3" t="s">
         <v>404</v>
@@ -5718,13 +5909,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s">
         <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D4" t="s">
         <v>340</v>
@@ -5733,7 +5924,7 @@
         <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H4" t="s">
         <v>404</v>
@@ -5742,18 +5933,18 @@
         <v>351</v>
       </c>
       <c r="K4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B5" t="s">
         <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D5" t="s">
         <v>340</v>
@@ -5762,10 +5953,10 @@
         <v>341</v>
       </c>
       <c r="G5" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="H5" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="J5" t="s">
         <v>351</v>
@@ -5774,48 +5965,71 @@
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>683</v>
+      </c>
+      <c r="B6" t="s">
         <v>348</v>
       </c>
-      <c r="C7" t="s">
-        <v>599</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>584</v>
+      </c>
+      <c r="J6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D11" t="s">
         <v>340</v>
       </c>
-      <c r="G7" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
         <v>348</v>
       </c>
-      <c r="C10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" t="s">
         <v>333</v>
       </c>
-      <c r="G10" t="s">
-        <v>441</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="G14" t="s">
+        <v>437</v>
+      </c>
+      <c r="J14" t="s">
         <v>351</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K14" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5826,11 +6040,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,10 +6094,10 @@
         <v>328</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>274</v>
@@ -5926,7 +6140,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s">
         <v>321</v>
@@ -5938,19 +6152,19 @@
         <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G3" t="s">
         <v>326</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="N3" s="10">
         <v>0.2</v>
@@ -5958,7 +6172,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>321</v>
@@ -5970,44 +6184,44 @@
         <v>324</v>
       </c>
       <c r="E5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="I5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
         <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D7" t="s">
         <v>324</v>
       </c>
       <c r="E7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B11" t="s">
         <v>321</v>
@@ -6024,7 +6238,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B12" t="s">
         <v>321</v>
@@ -6036,41 +6250,29 @@
         <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>628</v>
-      </c>
-      <c r="B14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>668</v>
+      </c>
+      <c r="B13" t="s">
         <v>321</v>
       </c>
-      <c r="C14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C13" t="s">
+        <v>457</v>
+      </c>
+      <c r="D13" t="s">
         <v>324</v>
       </c>
-      <c r="E14" t="s">
-        <v>629</v>
-      </c>
-      <c r="I14" t="s">
-        <v>630</v>
-      </c>
-      <c r="K14" t="s">
-        <v>632</v>
-      </c>
-      <c r="L14" t="s">
-        <v>633</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>634</v>
+      <c r="E13" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>664</v>
+        <v>621</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -6082,30 +6284,59 @@
         <v>324</v>
       </c>
       <c r="E15" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>621</v>
-      </c>
-      <c r="B17" t="s">
+        <v>622</v>
+      </c>
+      <c r="I15" t="s">
+        <v>623</v>
+      </c>
+      <c r="K15" t="s">
+        <v>625</v>
+      </c>
+      <c r="L15" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B16" t="s">
         <v>321</v>
       </c>
-      <c r="C17" t="s">
-        <v>622</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" t="s">
         <v>324</v>
       </c>
-      <c r="E17" t="s">
-        <v>623</v>
+      <c r="E16" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>324</v>
+      </c>
+      <c r="E18" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q14" r:id="rId1"/>
+    <hyperlink ref="Q15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -6448,7 +6679,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
@@ -6460,13 +6691,13 @@
         <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -6694,7 +6925,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B15" t="s">
         <v>162</v>
@@ -6706,13 +6937,13 @@
         <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -7827,7 +8058,7 @@
         <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F48" t="s">
         <v>261</v>
@@ -8028,16 +8259,16 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -8087,19 +8318,36 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s">
         <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>620</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E3" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -8167,15 +8415,16 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -8281,94 +8530,145 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B4" t="s">
         <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="H4" s="7"/>
       <c r="M4" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B8" t="s">
         <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H8" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L8" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="M8" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B9" t="s">
         <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E9" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F9" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L9" t="s">
-        <v>641</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>673</v>
+      </c>
+      <c r="B13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>712</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -8379,11 +8679,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8455,19 +8755,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
         <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
         <v>340</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>664</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -8477,11 +8794,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8489,18 +8806,19 @@
     <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8517,138 +8835,199 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>562</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>563</v>
+        <v>434</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
       </c>
       <c r="E2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B5" t="s">
         <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D5" t="s">
+        <v>556</v>
+      </c>
+      <c r="E5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L5" t="s">
         <v>560</v>
       </c>
-      <c r="E5" t="s">
-        <v>559</v>
-      </c>
-      <c r="G5" t="s">
-        <v>559</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
+        <v>561</v>
+      </c>
+      <c r="N5" t="s">
+        <v>562</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>564</v>
-      </c>
-      <c r="J5" t="s">
-        <v>565</v>
-      </c>
-      <c r="K5" t="s">
-        <v>566</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0.77</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>568</v>
       </c>
       <c r="B6" t="s">
         <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E6" t="s">
+        <v>555</v>
+      </c>
+      <c r="J6" t="s">
+        <v>555</v>
+      </c>
+      <c r="L6" t="s">
         <v>560</v>
       </c>
-      <c r="E6" t="s">
-        <v>559</v>
-      </c>
-      <c r="G6" t="s">
-        <v>559</v>
-      </c>
-      <c r="I6" t="s">
-        <v>564</v>
-      </c>
-      <c r="J6" t="s">
-        <v>569</v>
-      </c>
-      <c r="K6" t="s">
-        <v>570</v>
-      </c>
-      <c r="L6" s="12">
+      <c r="M6" t="s">
+        <v>565</v>
+      </c>
+      <c r="N6" t="s">
+        <v>566</v>
+      </c>
+      <c r="O6" s="12">
         <v>0.81</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>567</v>
+      <c r="P6" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>666</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>692</v>
+      </c>
+      <c r="B10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>695</v>
+      </c>
+      <c r="D10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>696</v>
+      </c>
+      <c r="F10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G10" t="s">
+        <v>698</v>
+      </c>
+      <c r="L10" t="s">
+        <v>699</v>
+      </c>
+      <c r="M10" t="s">
+        <v>693</v>
+      </c>
+      <c r="N10" t="s">
+        <v>694</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -8733,11 +9112,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8814,7 +9193,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -8826,11 +9205,58 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>676</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>677</v>
+      </c>
+      <c r="I6" t="s">
+        <v>682</v>
+      </c>
+      <c r="J6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
+        <v>678</v>
+      </c>
+      <c r="I7" t="s">
+        <v>682</v>
+      </c>
+      <c r="J7" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8862,13 +9288,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -8920,7 +9346,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
@@ -8929,7 +9355,7 @@
         <v>409</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E3" t="s">
         <v>414</v>
@@ -8938,12 +9364,12 @@
         <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B4" t="s">
         <v>284</v>
@@ -8952,7 +9378,7 @@
         <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E4" t="s">
         <v>414</v>
@@ -9126,7 +9552,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>284</v>
@@ -9151,10 +9577,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>364</v>
@@ -9280,7 +9706,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>284</v>
@@ -9292,7 +9718,7 @@
         <v>355</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -9303,10 +9729,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -9338,19 +9764,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -9369,19 +9795,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -9400,19 +9826,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -9450,13 +9876,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>355</v>
@@ -9467,7 +9893,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>358</v>
@@ -9479,13 +9905,13 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="15" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -9514,13 +9940,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>355</v>
@@ -9531,7 +9957,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>358</v>
@@ -9549,13 +9975,13 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>355</v>
@@ -9566,7 +9992,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>358</v>
@@ -9577,7 +10003,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -9586,13 +10012,13 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>355</v>
@@ -9603,7 +10029,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>358</v>
@@ -9614,7 +10040,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -9663,13 +10089,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>355</v>
@@ -9680,10 +10106,10 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -9718,27 +10144,27 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -9753,27 +10179,27 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -9788,27 +10214,27 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -9823,27 +10249,27 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -9902,7 +10328,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>284</v>
@@ -9911,21 +10337,21 @@
         <v>354</v>
       </c>
       <c r="L29" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M29" t="s">
+        <v>446</v>
+      </c>
+      <c r="O29" t="s">
+        <v>448</v>
+      </c>
+      <c r="P29" t="s">
         <v>450</v>
-      </c>
-      <c r="O29" t="s">
-        <v>452</v>
-      </c>
-      <c r="P29" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>284</v>
@@ -9934,82 +10360,82 @@
         <v>354</v>
       </c>
       <c r="D30" t="s">
+        <v>440</v>
+      </c>
+      <c r="E30" t="s">
+        <v>441</v>
+      </c>
+      <c r="H30" t="s">
+        <v>442</v>
+      </c>
+      <c r="I30" t="s">
+        <v>443</v>
+      </c>
+      <c r="L30" t="s">
         <v>444</v>
       </c>
-      <c r="E30" t="s">
+      <c r="M30" t="s">
+        <v>446</v>
+      </c>
+      <c r="O30" t="s">
+        <v>447</v>
+      </c>
+      <c r="P30" t="s">
         <v>445</v>
-      </c>
-      <c r="H30" t="s">
-        <v>446</v>
-      </c>
-      <c r="I30" t="s">
-        <v>447</v>
-      </c>
-      <c r="L30" t="s">
-        <v>448</v>
-      </c>
-      <c r="M30" t="s">
-        <v>450</v>
-      </c>
-      <c r="O30" t="s">
-        <v>451</v>
-      </c>
-      <c r="P30" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C32" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H32" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C37" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H37" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="J37" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="O37">
         <v>5.0999999999999996</v>
@@ -10017,19 +10443,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E39" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -10040,11 +10466,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM30"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10055,7 +10481,8 @@
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -10108,7 +10535,7 @@
         <v>311</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>274</v>
@@ -10206,7 +10633,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>302</v>
@@ -10230,7 +10657,7 @@
         <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>290</v>
@@ -10340,13 +10767,13 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>410</v>
@@ -10360,7 +10787,7 @@
         <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>290</v>
@@ -10397,13 +10824,13 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>285</v>
@@ -10421,7 +10848,7 @@
         <v>307</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>290</v>
@@ -10458,13 +10885,13 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>285</v>
@@ -10519,7 +10946,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>302</v>
@@ -10580,7 +11007,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>302</v>
@@ -10640,15 +11067,29 @@
       <c r="AM9" s="4"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="18" t="s">
+        <v>685</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>663</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
@@ -10681,21 +11122,11 @@
       <c r="AM10" s="4"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="A11" s="18"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -10732,21 +11163,11 @@
       <c r="AM11" s="4"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>415</v>
-      </c>
+      <c r="A12" s="18"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -10783,7 +11204,7 @@
       <c r="AM12" s="4"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -10824,21 +11245,11 @@
       <c r="AM13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="D14" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" t="s">
-        <v>404</v>
-      </c>
+      <c r="A14" s="18"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -10916,11 +11327,21 @@
       <c r="AM15" s="4"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -10958,12 +11379,20 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>606</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -11000,51 +11429,23 @@
       <c r="AM17" s="4"/>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>429</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="4" t="s">
-        <v>427</v>
-      </c>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4" t="s">
-        <v>430</v>
-      </c>
+      <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -11070,50 +11471,32 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>490</v>
+        <v>610</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>491</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>493</v>
-      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
-        <v>428</v>
-      </c>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -11221,20 +11604,12 @@
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>649</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -11271,23 +11646,51 @@
       <c r="AM22" s="4"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>429</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>427</v>
+      </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="Q23" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -11312,23 +11715,51 @@
       <c r="AM23" s="4"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>487</v>
+      </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>489</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="4" t="s">
+        <v>428</v>
+      </c>
       <c r="R24" s="4"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -11435,11 +11866,21 @@
       <c r="AM26" s="4"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>639</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -11598,18 +12039,224 @@
       <c r="AL30" s="4"/>
       <c r="AM30" s="4"/>
     </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+      <c r="AH32" s="4"/>
+      <c r="AI32" s="4"/>
+      <c r="AJ32" s="4"/>
+      <c r="AK32" s="4"/>
+      <c r="AL32" s="4"/>
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
+      <c r="AH33" s="4"/>
+      <c r="AI33" s="4"/>
+      <c r="AJ33" s="4"/>
+      <c r="AK33" s="4"/>
+      <c r="AL33" s="4"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="4"/>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="4"/>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="4"/>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11711,25 +12358,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>707</v>
       </c>
       <c r="B3" t="s">
         <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>581</v>
       </c>
       <c r="D3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E3" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>489</v>
+        <v>584</v>
       </c>
       <c r="H3" t="s">
-        <v>404</v>
+        <v>576</v>
       </c>
       <c r="J3" t="s">
         <v>346</v>
@@ -11737,19 +12381,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s">
         <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>710</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>344</v>
+        <v>584</v>
       </c>
       <c r="J4" t="s">
         <v>346</v>
@@ -11757,19 +12401,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>709</v>
       </c>
       <c r="B5" t="s">
         <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s">
         <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J5" t="s">
         <v>346</v>
@@ -11777,19 +12421,25 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>589</v>
+        <v>717</v>
       </c>
       <c r="B6" t="s">
         <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>590</v>
+        <v>337</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>341</v>
+      </c>
+      <c r="E6" t="s">
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>591</v>
+        <v>344</v>
+      </c>
+      <c r="H6" t="s">
+        <v>345</v>
       </c>
       <c r="J6" t="s">
         <v>346</v>
@@ -11797,13 +12447,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D7" t="s">
         <v>340</v>
@@ -11812,7 +12462,7 @@
         <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H7" t="s">
         <v>404</v>
@@ -11821,24 +12471,110 @@
         <v>346</v>
       </c>
     </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G8" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G9" t="s">
+        <v>584</v>
+      </c>
+      <c r="J9" t="s">
+        <v>346</v>
+      </c>
+    </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
         <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="D10" t="s">
         <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J10" t="s">
-        <v>627</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" t="s">
+        <v>341</v>
+      </c>
+      <c r="G11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H11" t="s">
+        <v>404</v>
+      </c>
+      <c r="J11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D14" t="s">
+        <v>410</v>
+      </c>
+      <c r="G14" t="s">
+        <v>584</v>
+      </c>
+      <c r="J14" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -11924,36 +12660,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B4" t="s">
         <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E4" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -11963,19 +12699,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
         <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="720">
   <si>
     <t>Part</t>
   </si>
@@ -2234,6 +2234,12 @@
   </si>
   <si>
     <t>MCP6564</t>
+  </si>
+  <si>
+    <t>ECAP-12.5x5x25R</t>
+  </si>
+  <si>
+    <t>PLS-1</t>
   </si>
 </sst>
 </file>
@@ -4364,9 +4370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4454,9 +4460,12 @@
         <v>366</v>
       </c>
       <c r="E2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F2" t="s">
         <v>661</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>660</v>
       </c>
     </row>
@@ -6406,8 +6415,8 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7810,6 +7819,9 @@
       </c>
       <c r="D42" t="s">
         <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>718</v>
       </c>
       <c r="F42" t="s">
         <v>255</v>
@@ -10470,7 +10482,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12254,7 +12266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2404" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="724">
   <si>
     <t>Part</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>2Д510А/ББ</t>
   </si>
   <si>
-    <t>2Д814А</t>
-  </si>
-  <si>
     <t>DO-SOD.PcbLib</t>
   </si>
   <si>
@@ -2240,6 +2237,21 @@
   </si>
   <si>
     <t>PLS-1</t>
+  </si>
+  <si>
+    <t>THN-15-4815WI</t>
+  </si>
+  <si>
+    <t>SN74LVC2G14DBVR</t>
+  </si>
+  <si>
+    <t>SDR0503-102KL</t>
+  </si>
+  <si>
+    <t>SDR0503</t>
+  </si>
+  <si>
+    <t>2Д814А1</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3157,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
         <v>160</v>
@@ -3157,13 +3169,13 @@
         <v>218</v>
       </c>
       <c r="E11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -3186,7 +3198,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s">
         <v>160</v>
@@ -3198,13 +3210,13 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -3227,7 +3239,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
@@ -3239,13 +3251,13 @@
         <v>218</v>
       </c>
       <c r="E13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -4239,13 +4251,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
         <v>410</v>
@@ -4273,7 +4285,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
@@ -4310,13 +4322,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B7" t="s">
         <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D7" t="s">
         <v>410</v>
@@ -4328,13 +4340,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s">
         <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D8" t="s">
         <v>410</v>
@@ -4346,7 +4358,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B11" t="s">
         <v>409</v>
@@ -4370,7 +4382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -4460,13 +4472,13 @@
         <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -4492,10 +4504,10 @@
         <v>416</v>
       </c>
       <c r="H3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4518,10 +4530,10 @@
         <v>386</v>
       </c>
       <c r="G4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4772,7 +4784,7 @@
         <v>377</v>
       </c>
       <c r="F17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5162,19 +5174,19 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
         <v>213</v>
       </c>
       <c r="C49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D49" t="s">
         <v>366</v>
       </c>
       <c r="E49" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5248,56 +5260,56 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D2" t="s">
         <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B3" t="s">
         <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
         <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D4" t="s">
         <v>410</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -5307,28 +5319,28 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
         <v>409</v>
       </c>
       <c r="C11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D11" t="s">
         <v>285</v>
       </c>
       <c r="E11" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" t="s">
         <v>492</v>
-      </c>
-      <c r="F11" t="s">
-        <v>493</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>290</v>
       </c>
       <c r="I11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -5339,11 +5351,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5406,13 +5418,13 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D2" t="s">
         <v>340</v>
@@ -5429,48 +5441,66 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B3" t="s">
+        <v>670</v>
+      </c>
+      <c r="C3" t="s">
         <v>688</v>
-      </c>
-      <c r="B3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C3" t="s">
-        <v>689</v>
       </c>
       <c r="D3" t="s">
         <v>410</v>
       </c>
       <c r="F3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" t="s">
+        <v>670</v>
+      </c>
+      <c r="C5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J12" t="s">
         <v>451</v>
-      </c>
-      <c r="B6" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" t="s">
-        <v>333</v>
-      </c>
-      <c r="F6" t="s">
-        <v>453</v>
-      </c>
-      <c r="J6" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5544,30 +5574,30 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
         <v>469</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D2" t="s">
         <v>470</v>
       </c>
-      <c r="C2" t="s">
-        <v>469</v>
-      </c>
-      <c r="D2" t="s">
-        <v>471</v>
-      </c>
       <c r="F2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
@@ -5578,13 +5608,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D4" t="s">
         <v>340</v>
@@ -5593,24 +5623,24 @@
         <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
         <v>404</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D5" t="s">
         <v>340</v>
@@ -5619,30 +5649,30 @@
         <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G5" t="s">
         <v>404</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F7" t="s">
         <v>715</v>
-      </c>
-      <c r="B7" t="s">
-        <v>470</v>
-      </c>
-      <c r="C7" t="s">
-        <v>715</v>
-      </c>
-      <c r="D7" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7" t="s">
-        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -5710,19 +5740,19 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D2" t="s">
         <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5895,13 +5925,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B3" t="s">
         <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D3" t="s">
         <v>340</v>
@@ -5910,7 +5940,7 @@
         <v>341</v>
       </c>
       <c r="G3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H3" t="s">
         <v>404</v>
@@ -5918,13 +5948,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B4" t="s">
         <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
         <v>340</v>
@@ -5933,7 +5963,7 @@
         <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H4" t="s">
         <v>404</v>
@@ -5942,18 +5972,18 @@
         <v>351</v>
       </c>
       <c r="K4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B5" t="s">
         <v>348</v>
       </c>
       <c r="C5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D5" t="s">
         <v>340</v>
@@ -5962,10 +5992,10 @@
         <v>341</v>
       </c>
       <c r="G5" t="s">
+        <v>640</v>
+      </c>
+      <c r="H5" t="s">
         <v>641</v>
-      </c>
-      <c r="H5" t="s">
-        <v>642</v>
       </c>
       <c r="J5" t="s">
         <v>351</v>
@@ -5976,42 +6006,42 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B6" t="s">
         <v>348</v>
       </c>
       <c r="C6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D6" t="s">
         <v>410</v>
       </c>
       <c r="G6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J6" t="s">
         <v>351</v>
       </c>
       <c r="K6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B11" t="s">
         <v>348</v>
       </c>
       <c r="C11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D11" t="s">
         <v>340</v>
       </c>
       <c r="G11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -6049,11 +6079,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6103,10 +6133,10 @@
         <v>328</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>274</v>
@@ -6149,7 +6179,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
         <v>321</v>
@@ -6161,19 +6191,19 @@
         <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G3" t="s">
         <v>326</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>503</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>504</v>
       </c>
       <c r="N3" s="10">
         <v>0.2</v>
@@ -6181,7 +6211,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>321</v>
@@ -6193,44 +6223,44 @@
         <v>324</v>
       </c>
       <c r="E5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F5" t="s">
         <v>516</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>517</v>
-      </c>
-      <c r="I5" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>321</v>
       </c>
       <c r="C7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
         <v>324</v>
       </c>
       <c r="E7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G7" t="s">
         <v>458</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>459</v>
       </c>
-      <c r="I7" t="s">
-        <v>460</v>
-      </c>
       <c r="J7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B11" t="s">
         <v>321</v>
@@ -6247,7 +6277,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B12" t="s">
         <v>321</v>
@@ -6259,29 +6289,29 @@
         <v>324</v>
       </c>
       <c r="E12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B13" t="s">
         <v>321</v>
       </c>
       <c r="C13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
         <v>324</v>
       </c>
       <c r="E13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B15" t="s">
         <v>321</v>
@@ -6293,24 +6323,24 @@
         <v>324</v>
       </c>
       <c r="E15" t="s">
+        <v>621</v>
+      </c>
+      <c r="I15" t="s">
         <v>622</v>
       </c>
-      <c r="I15" t="s">
-        <v>623</v>
-      </c>
       <c r="K15" t="s">
+        <v>624</v>
+      </c>
+      <c r="L15" t="s">
         <v>625</v>
       </c>
-      <c r="L15" t="s">
+      <c r="Q15" s="16" t="s">
         <v>626</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B16" t="s">
         <v>321</v>
@@ -6322,25 +6352,43 @@
         <v>324</v>
       </c>
       <c r="E16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q16" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>721</v>
+      </c>
+      <c r="B17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E17" t="s">
+        <v>722</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>613</v>
+      </c>
+      <c r="B19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C19" t="s">
         <v>614</v>
       </c>
-      <c r="B18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E19" t="s">
         <v>615</v>
-      </c>
-      <c r="D18" t="s">
-        <v>324</v>
-      </c>
-      <c r="E18" t="s">
-        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -6688,7 +6736,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
@@ -6700,13 +6748,13 @@
         <v>228</v>
       </c>
       <c r="F8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G8" t="s">
         <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -6934,7 +6982,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B15" t="s">
         <v>162</v>
@@ -6946,13 +6994,13 @@
         <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -7821,7 +7869,7 @@
         <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F42" t="s">
         <v>255</v>
@@ -8070,7 +8118,7 @@
         <v>228</v>
       </c>
       <c r="E48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F48" t="s">
         <v>261</v>
@@ -8330,36 +8378,36 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>332</v>
       </c>
       <c r="C2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B3" t="s">
         <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -8542,99 +8590,99 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B4" t="s">
         <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H4" s="7"/>
       <c r="M4" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B8" t="s">
         <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F8" t="s">
+        <v>629</v>
+      </c>
+      <c r="H8" t="s">
+        <v>634</v>
+      </c>
+      <c r="L8" t="s">
+        <v>632</v>
+      </c>
+      <c r="M8" t="s">
         <v>630</v>
-      </c>
-      <c r="H8" t="s">
-        <v>635</v>
-      </c>
-      <c r="L8" t="s">
-        <v>633</v>
-      </c>
-      <c r="M8" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B9" t="s">
         <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>410</v>
       </c>
       <c r="E9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B11" t="s">
         <v>266</v>
@@ -8646,41 +8694,41 @@
         <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B13" t="s">
         <v>266</v>
       </c>
       <c r="C13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D13" t="s">
         <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B16" t="s">
         <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D16" t="s">
         <v>410</v>
       </c>
       <c r="E16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -8767,36 +8815,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B3" t="s">
         <v>403</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D3" t="s">
         <v>340</v>
       </c>
       <c r="E3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B4" t="s">
         <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D4" t="s">
         <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8806,11 +8854,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8868,13 +8916,13 @@
         <v>434</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>558</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>559</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>274</v>
@@ -8888,158 +8936,175 @@
     </row>
     <row r="2" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>409</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D2" t="s">
         <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
         <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s">
         <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L5" t="s">
+        <v>559</v>
+      </c>
+      <c r="M5" t="s">
         <v>560</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>561</v>
-      </c>
-      <c r="N5" t="s">
-        <v>562</v>
       </c>
       <c r="O5" s="12">
         <v>0.77</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s">
         <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M6" t="s">
+        <v>564</v>
+      </c>
+      <c r="N6" t="s">
         <v>565</v>
-      </c>
-      <c r="N6" t="s">
-        <v>566</v>
       </c>
       <c r="O6" s="12">
         <v>0.81</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B8" t="s">
         <v>409</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
         <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>719</v>
+      </c>
+      <c r="B9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C9" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" t="s">
+        <v>694</v>
+      </c>
+      <c r="D11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F11" t="s">
+        <v>696</v>
+      </c>
+      <c r="G11" t="s">
+        <v>697</v>
+      </c>
+      <c r="L11" t="s">
+        <v>698</v>
+      </c>
+      <c r="M11" t="s">
         <v>692</v>
       </c>
-      <c r="B10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" t="s">
-        <v>695</v>
-      </c>
-      <c r="D10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E10" t="s">
-        <v>696</v>
-      </c>
-      <c r="F10" t="s">
-        <v>697</v>
-      </c>
-      <c r="G10" t="s">
-        <v>698</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="N11" t="s">
+        <v>693</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="M10" t="s">
-        <v>693</v>
-      </c>
-      <c r="N10" t="s">
-        <v>694</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -9205,7 +9270,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -9217,12 +9282,12 @@
         <v>228</v>
       </c>
       <c r="E4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B6" t="s">
         <v>162</v>
@@ -9234,18 +9299,18 @@
         <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B7" t="s">
         <v>162</v>
@@ -9257,13 +9322,13 @@
         <v>228</v>
       </c>
       <c r="E7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -9300,13 +9365,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -9358,7 +9423,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
@@ -9367,7 +9432,7 @@
         <v>409</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
         <v>414</v>
@@ -9376,12 +9441,12 @@
         <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B4" t="s">
         <v>284</v>
@@ -9390,7 +9455,7 @@
         <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" t="s">
         <v>414</v>
@@ -9412,9 +9477,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9564,7 +9629,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>284</v>
@@ -9589,10 +9654,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>364</v>
@@ -9718,7 +9783,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>284</v>
@@ -9730,7 +9795,7 @@
         <v>355</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -9741,10 +9806,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>644</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>645</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -9776,19 +9841,19 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -9807,19 +9872,19 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -9838,19 +9903,19 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -9888,13 +9953,13 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>355</v>
@@ -9905,7 +9970,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>358</v>
@@ -9917,13 +9982,13 @@
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>601</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -9952,13 +10017,13 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>355</v>
@@ -9969,7 +10034,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>358</v>
@@ -9987,13 +10052,13 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>355</v>
@@ -10004,7 +10069,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>358</v>
@@ -10015,7 +10080,7 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -10024,13 +10089,13 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>355</v>
@@ -10041,7 +10106,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>358</v>
@@ -10052,7 +10117,7 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -10101,13 +10166,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>355</v>
@@ -10118,10 +10183,10 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10156,27 +10221,27 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10191,27 +10256,27 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -10226,27 +10291,27 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10261,27 +10326,27 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -10349,21 +10414,21 @@
         <v>354</v>
       </c>
       <c r="L29" t="s">
+        <v>448</v>
+      </c>
+      <c r="M29" t="s">
+        <v>445</v>
+      </c>
+      <c r="O29" t="s">
+        <v>447</v>
+      </c>
+      <c r="P29" t="s">
         <v>449</v>
-      </c>
-      <c r="M29" t="s">
-        <v>446</v>
-      </c>
-      <c r="O29" t="s">
-        <v>448</v>
-      </c>
-      <c r="P29" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>723</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>284</v>
@@ -10372,82 +10437,82 @@
         <v>354</v>
       </c>
       <c r="D30" t="s">
+        <v>439</v>
+      </c>
+      <c r="E30" t="s">
         <v>440</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>441</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>442</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>443</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
+        <v>445</v>
+      </c>
+      <c r="O30" t="s">
+        <v>446</v>
+      </c>
+      <c r="P30" t="s">
         <v>444</v>
-      </c>
-      <c r="M30" t="s">
-        <v>446</v>
-      </c>
-      <c r="O30" t="s">
-        <v>447</v>
-      </c>
-      <c r="P30" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C32" t="s">
+        <v>505</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E32" t="s">
         <v>506</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>507</v>
       </c>
-      <c r="H32" t="s">
-        <v>508</v>
-      </c>
       <c r="I32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E37" t="s">
+        <v>528</v>
+      </c>
+      <c r="H37" t="s">
         <v>529</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>528</v>
+      </c>
+      <c r="J37" t="s">
         <v>530</v>
-      </c>
-      <c r="I37" t="s">
-        <v>529</v>
-      </c>
-      <c r="J37" t="s">
-        <v>531</v>
       </c>
       <c r="O37">
         <v>5.0999999999999996</v>
@@ -10455,19 +10520,19 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -10547,7 +10612,7 @@
         <v>311</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>274</v>
@@ -10645,7 +10710,7 @@
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>302</v>
@@ -10669,7 +10734,7 @@
         <v>307</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>290</v>
@@ -10779,13 +10844,13 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>410</v>
@@ -10799,7 +10864,7 @@
         <v>307</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>290</v>
@@ -10836,13 +10901,13 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>285</v>
@@ -10860,7 +10925,7 @@
         <v>307</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>290</v>
@@ -10897,13 +10962,13 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>285</v>
@@ -10958,7 +11023,7 @@
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>302</v>
@@ -11019,7 +11084,7 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>302</v>
@@ -11080,13 +11145,13 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>410</v>
@@ -11100,7 +11165,7 @@
         <v>307</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -11340,13 +11405,13 @@
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>410</v>
@@ -11391,13 +11456,13 @@
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>410</v>
@@ -11483,13 +11548,13 @@
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>302</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D19" t="s">
         <v>341</v>
@@ -11728,7 +11793,7 @@
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>302</v>
@@ -11758,14 +11823,14 @@
         <v>290</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
         <v>427</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -11879,7 +11944,7 @@
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>302</v>
@@ -11891,7 +11956,7 @@
         <v>285</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -12370,22 +12435,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s">
         <v>336</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
         <v>410</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J3" t="s">
         <v>346</v>
@@ -12393,19 +12458,19 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B4" t="s">
         <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D4" t="s">
         <v>410</v>
       </c>
       <c r="G4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J4" t="s">
         <v>346</v>
@@ -12413,19 +12478,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B5" t="s">
         <v>336</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D5" t="s">
         <v>410</v>
       </c>
       <c r="G5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J5" t="s">
         <v>346</v>
@@ -12433,7 +12498,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B6" t="s">
         <v>336</v>
@@ -12459,13 +12524,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>336</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D7" t="s">
         <v>340</v>
@@ -12474,7 +12539,7 @@
         <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H7" t="s">
         <v>404</v>
@@ -12485,7 +12550,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B8" t="s">
         <v>336</v>
@@ -12505,19 +12570,19 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B9" t="s">
         <v>336</v>
       </c>
       <c r="C9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
         <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J9" t="s">
         <v>346</v>
@@ -12525,19 +12590,19 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s">
         <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
         <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J10" t="s">
         <v>346</v>
@@ -12545,13 +12610,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
         <v>336</v>
       </c>
       <c r="C11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
         <v>340</v>
@@ -12560,7 +12625,7 @@
         <v>341</v>
       </c>
       <c r="G11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H11" t="s">
         <v>404</v>
@@ -12571,22 +12636,22 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14" t="s">
         <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D14" t="s">
         <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -12672,36 +12737,36 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>332</v>
       </c>
       <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E3" t="s">
         <v>474</v>
-      </c>
-      <c r="D3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B4" t="s">
         <v>332</v>
       </c>
       <c r="C4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E4" t="s">
         <v>568</v>
-      </c>
-      <c r="D4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -12711,19 +12776,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
         <v>332</v>
       </c>
       <c r="C8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" t="s">
         <v>496</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>497</v>
-      </c>
-      <c r="E8" t="s">
-        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="725">
   <si>
     <t>Part</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>2Д814А1</t>
+  </si>
+  <si>
+    <t>ADM2483</t>
   </si>
 </sst>
 </file>
@@ -5506,9 +5509,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
@@ -5658,20 +5661,37 @@
         <v>571</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>724</v>
+      </c>
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" t="s">
+        <v>724</v>
+      </c>
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>714</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>469</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>714</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>496</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>715</v>
       </c>
     </row>
@@ -5824,7 +5844,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9477,7 +9497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
     </sheetView>

--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="930" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="738">
   <si>
     <t>Part</t>
   </si>
@@ -2255,6 +2255,45 @@
   </si>
   <si>
     <t>ADM2483</t>
+  </si>
+  <si>
+    <t>74AC14N</t>
+  </si>
+  <si>
+    <t>HEXINVERTER_SHMIDT</t>
+  </si>
+  <si>
+    <t>DIP переключатель 3pin</t>
+  </si>
+  <si>
+    <t>DIP_SWITCH_3</t>
+  </si>
+  <si>
+    <t>DIP переключатель 1pin</t>
+  </si>
+  <si>
+    <t>DIP_SWITCH_1</t>
+  </si>
+  <si>
+    <t>UC1842</t>
+  </si>
+  <si>
+    <t>VolReg(UCx84x)</t>
+  </si>
+  <si>
+    <t>PC817</t>
+  </si>
+  <si>
+    <t>Opto2</t>
+  </si>
+  <si>
+    <t>DIP-4</t>
+  </si>
+  <si>
+    <t>Flyback_Transfotmer</t>
+  </si>
+  <si>
+    <t>TRANS_FLY</t>
   </si>
 </sst>
 </file>
@@ -4383,16 +4422,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -5192,6 +5231,34 @@
         <v>700</v>
       </c>
     </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>727</v>
+      </c>
+      <c r="B51" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" t="s">
+        <v>728</v>
+      </c>
+      <c r="D51" t="s">
+        <v>366</v>
+      </c>
+      <c r="E51" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>729</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" t="s">
+        <v>730</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5204,7 +5271,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,6 +5382,23 @@
         <v>652</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>426</v>
@@ -5358,7 +5442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,6 +5560,23 @@
         <v>652</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C6" t="s">
+        <v>726</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" t="s">
+        <v>343</v>
+      </c>
+    </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>426</v>
@@ -5511,7 +5612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
@@ -6099,11 +6200,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6409,6 +6510,17 @@
       </c>
       <c r="E19" t="s">
         <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>736</v>
+      </c>
+      <c r="B21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
@@ -8759,11 +8871,11 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8865,6 +8977,23 @@
       </c>
       <c r="E4" t="s">
         <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C5" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
